--- a/reports/report_optimized_mobility vs FAINTERU.xlsx
+++ b/reports/report_optimized_mobility vs FAINTERU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="525" windowWidth="19815" windowHeight="7110" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="19815" windowHeight="7110" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="locoms" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="global_results" sheetId="6" r:id="rId6"/>
     <sheet name="costs" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">links!$A$1:$I$143</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -11223,7 +11220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11244,9 +11241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11848,9 +11842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C143"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11885,261 +11877,321 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3610223.8724249098</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>566.52757508959621</v>
+      </c>
+      <c r="F2">
+        <v>88147.5</v>
+      </c>
+      <c r="G2">
+        <v>10603413.704093279</v>
+      </c>
+      <c r="H2">
+        <v>833617.0728214999</v>
+      </c>
+      <c r="I2">
+        <v>972756631.23446441</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>58.2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8810473.3051850926</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1818886.6948149081</v>
+      </c>
+      <c r="F3">
+        <v>31864.5</v>
+      </c>
+      <c r="G3">
+        <v>8120057.2365799444</v>
+      </c>
+      <c r="H3">
+        <v>397094.17133410712</v>
+      </c>
+      <c r="I3">
+        <v>866441014.43425596</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>902774.1774873049</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1200.2225126952401</v>
+      </c>
+      <c r="F4">
+        <v>92527.5</v>
+      </c>
+      <c r="G4">
+        <v>4753506.9898528289</v>
+      </c>
+      <c r="H4">
+        <v>589996.42718624859</v>
+      </c>
+      <c r="I4">
+        <v>255348819.3259227</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>55.6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3350029.109192715</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2312578.890807285</v>
+      </c>
+      <c r="F5">
+        <v>30441</v>
+      </c>
+      <c r="G5">
+        <v>3544022.1930347909</v>
+      </c>
+      <c r="H5">
+        <v>284220.82010253781</v>
+      </c>
+      <c r="I5">
+        <v>321790229.46582621</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1948743.925842646</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>929.67415735428222</v>
+      </c>
+      <c r="F6">
+        <v>110595</v>
+      </c>
+      <c r="G6">
+        <v>8626295.186165927</v>
+      </c>
+      <c r="H6">
+        <v>873497.08307188889</v>
+      </c>
+      <c r="I6">
+        <v>658804930.77034211</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="D7">
-        <v>8149.7311264683603</v>
+        <v>3484992.7627905798</v>
       </c>
       <c r="E7">
-        <v>787.86887353161001</v>
+        <v>671.23720942041837</v>
       </c>
       <c r="F7">
-        <v>197100</v>
+        <v>113880</v>
       </c>
       <c r="G7">
-        <v>5637202.1710076956</v>
+        <v>13335810.71444994</v>
       </c>
       <c r="H7">
-        <v>456284.33159685461</v>
+        <v>1065712.321959581</v>
       </c>
       <c r="I7">
-        <v>4932274.1612004004</v>
+        <v>1213137789.1011789</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c r="D8">
-        <v>26627.120672718531</v>
+        <v>735096.43695306755</v>
       </c>
       <c r="E8">
-        <v>185.6793272814248</v>
+        <v>340.36304693261633</v>
       </c>
       <c r="F8">
-        <v>36135</v>
+        <v>163155</v>
       </c>
       <c r="G8">
-        <v>1050457.0336031511</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>102804.7729855715</v>
+        <v>984658.63235724345</v>
       </c>
       <c r="I8">
-        <v>2942055.4193990789</v>
+        <v>366615644.29059398</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>87683.082750684203</v>
+        <v>3510400.9006626671</v>
       </c>
       <c r="E9">
-        <v>416.11724931577919</v>
+        <v>799.09933733195066</v>
       </c>
       <c r="F9">
-        <v>125925</v>
+        <v>62414.999999999993</v>
       </c>
       <c r="G9">
-        <v>3856429.2017332772</v>
+        <v>7349427.5958232097</v>
       </c>
       <c r="H9">
-        <v>455483.52390165091</v>
+        <v>585355.98777824349</v>
       </c>
       <c r="I9">
-        <v>33758340.599715322</v>
+        <v>669741478.07765353</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="D10">
-        <v>183965.42327697659</v>
+        <v>1208415.4743977161</v>
       </c>
       <c r="E10">
-        <v>1170.576723023376</v>
+        <v>714.1256022839807</v>
       </c>
       <c r="F10">
-        <v>81030</v>
+        <v>118260</v>
       </c>
       <c r="G10">
-        <v>2680195.92479055</v>
+        <v>6995498.8644078253</v>
       </c>
       <c r="H10">
-        <v>346125.37417620141</v>
+        <v>816580.76930203405</v>
       </c>
       <c r="I10">
-        <v>45579360.409869052</v>
+        <v>436840646.32104158</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="D11">
-        <v>263289.55175317847</v>
+        <v>3798901.464780835</v>
       </c>
       <c r="E11">
-        <v>1008.048246821505</v>
+        <v>855.33521916624159</v>
       </c>
       <c r="F11">
-        <v>38325</v>
+        <v>200385</v>
       </c>
       <c r="G11">
-        <v>1345038.875184953</v>
+        <v>25067135.194461469</v>
       </c>
       <c r="H11">
-        <v>178255.21956626989</v>
+        <v>1924092.4766118389</v>
       </c>
       <c r="I11">
-        <v>30849666.612438262</v>
+        <v>2326937355.222753</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>273300.04276622972</v>
+        <v>4329064.9522864027</v>
       </c>
       <c r="E12">
-        <v>1211.9572337701679</v>
+        <v>563.84771359758452</v>
       </c>
       <c r="F12">
-        <v>68437.5</v>
+        <v>37230</v>
       </c>
       <c r="G12">
-        <v>2419310.8872570032</v>
+        <v>5159701.9768182896</v>
       </c>
       <c r="H12">
-        <v>321205.44644527673</v>
+        <v>371776.80726584792</v>
       </c>
       <c r="I12">
-        <v>57184829.956361279</v>
+        <v>492659274.34802032</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -12162,7 +12214,7 @@
         <v>44895</v>
       </c>
       <c r="G13">
-        <v>1717724.7861805691</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>229686.7876433646</v>
@@ -12173,3780 +12225,3715 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D14">
-        <v>391641.43599484762</v>
+        <v>4227103.2748707132</v>
       </c>
       <c r="E14">
-        <v>384652.9640051524</v>
+        <v>381.52512928517541</v>
       </c>
       <c r="F14">
-        <v>27375</v>
+        <v>60225.000000000007</v>
       </c>
       <c r="G14">
-        <v>1062693.1083129749</v>
+        <v>8190252.8242616653</v>
       </c>
       <c r="H14">
-        <v>142006.85963762389</v>
+        <v>597102.54665265791</v>
       </c>
       <c r="I14">
-        <v>34278066.918636657</v>
+        <v>778176979.42374194</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D15">
-        <v>417925.29040491697</v>
+        <v>2132226.0235192971</v>
       </c>
       <c r="E15">
-        <v>865.10959508293308</v>
+        <v>29.976480702869591</v>
       </c>
       <c r="F15">
-        <v>107310</v>
+        <v>101287.5</v>
       </c>
       <c r="G15">
-        <v>4188491.9648750932</v>
+        <v>8373280.6455137664</v>
       </c>
       <c r="H15">
-        <v>559499.87179301679</v>
+        <v>820909.84308801871</v>
       </c>
       <c r="I15">
-        <v>137100107.46660411</v>
+        <v>660155513.36956406</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="D16">
-        <v>503645.24511633668</v>
+        <v>8149.7311264683603</v>
       </c>
       <c r="E16">
-        <v>690.75488366326317</v>
+        <v>787.86887353161001</v>
       </c>
       <c r="F16">
-        <v>99645</v>
+        <v>197100</v>
       </c>
       <c r="G16">
-        <v>4106719.8893762492</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>544820.88925636117</v>
+        <v>456284.33159685461</v>
       </c>
       <c r="I16">
-        <v>153414002.83210969</v>
+        <v>4932274.1612004004</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="D17">
-        <v>523954.18142389512</v>
+        <v>1271383.4277640569</v>
       </c>
       <c r="E17">
-        <v>810.61857610498555</v>
+        <v>309.372235942923</v>
       </c>
       <c r="F17">
-        <v>248017.5</v>
+        <v>193267.5</v>
       </c>
       <c r="G17">
-        <v>10349923.09982723</v>
+        <v>11742145.817236271</v>
       </c>
       <c r="H17">
-        <v>1369934.641192273</v>
+        <v>1353393.2193354161</v>
       </c>
       <c r="I17">
-        <v>397250046.67611051</v>
+        <v>751099025.00113618</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="D18">
-        <v>552741.29329579161</v>
+        <v>1251030.041683564</v>
       </c>
       <c r="E18">
-        <v>113.1067042084469</v>
+        <v>233.95831643603739</v>
       </c>
       <c r="F18">
-        <v>32850</v>
+        <v>142350</v>
       </c>
       <c r="G18">
-        <v>1394895.255191816</v>
+        <v>8574841.9417278767</v>
       </c>
       <c r="H18">
-        <v>183970.58663052789</v>
+        <v>992384.22570068727</v>
       </c>
       <c r="I18">
-        <v>55503238.072597191</v>
+        <v>544359603.00304031</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D19">
-        <v>563732.86201927438</v>
+        <v>1210977.1569712509</v>
       </c>
       <c r="E19">
-        <v>612.73798072524369</v>
+        <v>706.04302874812856</v>
       </c>
       <c r="F19">
-        <v>143445</v>
+        <v>136875</v>
       </c>
       <c r="G19">
-        <v>6131262.7239317875</v>
+        <v>8105566.225128388</v>
       </c>
       <c r="H19">
-        <v>807458.09474708256</v>
+        <v>945669.61339996685</v>
       </c>
       <c r="I19">
-        <v>247193891.9020558</v>
+        <v>506674223.3159157</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>493</v>
+        <v>200</v>
       </c>
       <c r="D20">
-        <v>590833.50271353743</v>
+        <v>3844470.7674771291</v>
       </c>
       <c r="E20">
-        <v>324.89728646259749</v>
+        <v>1250.832522870973</v>
       </c>
       <c r="F20">
-        <v>269917.5</v>
+        <v>109500</v>
       </c>
       <c r="G20">
-        <v>11723180.79896657</v>
+        <v>13824956.65106234</v>
       </c>
       <c r="H20">
-        <v>1538029.414112844</v>
+        <v>1055174.243779459</v>
       </c>
       <c r="I20">
-        <v>487488314.95549649</v>
+        <v>1286809244.8617511</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <v>84.8</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>614070.58966228622</v>
+        <v>5160195.4704907881</v>
       </c>
       <c r="E21">
-        <v>70.210337713593617</v>
+        <v>630.12950921279844</v>
       </c>
       <c r="F21">
-        <v>46428</v>
+        <v>54750</v>
       </c>
       <c r="G21">
-        <v>2043930.429387239</v>
+        <v>8746121.5220713355</v>
       </c>
       <c r="H21">
-        <v>267228.81982648151</v>
+        <v>576601.1532818526</v>
       </c>
       <c r="I21">
-        <v>87148010.052982032</v>
+        <v>863594039.34019709</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="D22">
-        <v>618250.2394497986</v>
+        <v>1052880.9644907259</v>
       </c>
       <c r="E22">
-        <v>997.76055020152126</v>
+        <v>479.0355092746031</v>
       </c>
       <c r="F22">
-        <v>68437.5</v>
+        <v>113880</v>
       </c>
       <c r="G22">
-        <v>3020226.0744378599</v>
+        <v>6285506.3396806791</v>
       </c>
       <c r="H22">
-        <v>394616.95491473819</v>
+        <v>757122.873960217</v>
       </c>
       <c r="I22">
-        <v>129344541.7950491</v>
+        <v>366515931.45577991</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>493</v>
+        <v>258</v>
       </c>
       <c r="D23">
-        <v>655014.48229774763</v>
+        <v>4971580.7217816291</v>
       </c>
       <c r="E23">
-        <v>1260.7177022523249</v>
+        <v>278.47821837151417</v>
       </c>
       <c r="F23">
-        <v>269917.5</v>
+        <v>141255</v>
       </c>
       <c r="G23">
-        <v>12164455.370335169</v>
+        <v>21886739.09931739</v>
       </c>
       <c r="H23">
-        <v>1580127.7314158189</v>
+        <v>1470878.3585246401</v>
       </c>
       <c r="I23">
-        <v>540477899.16135478</v>
+        <v>2146625779.921839</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>706164.1817318463</v>
+        <v>3851308.5995221571</v>
       </c>
       <c r="E24">
-        <v>1183.0182681535371</v>
+        <v>797.00047784438357</v>
       </c>
       <c r="F24">
-        <v>43800</v>
+        <v>53655</v>
       </c>
       <c r="G24">
-        <v>2030972.646617193</v>
+        <v>6783538.8267945834</v>
       </c>
       <c r="H24">
-        <v>261544.1142542189</v>
+        <v>517309.48845015827</v>
       </c>
       <c r="I24">
-        <v>94552000.335302278</v>
+        <v>631654511.05863047</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>735096.43695306755</v>
+        <v>10762395.482559299</v>
       </c>
       <c r="E25">
-        <v>340.36304693261633</v>
+        <v>1028.517440700904</v>
       </c>
       <c r="F25">
-        <v>163155</v>
+        <v>39420</v>
       </c>
       <c r="G25">
-        <v>7685368.7813294958</v>
+        <v>11918703.97408572</v>
       </c>
       <c r="H25">
-        <v>984658.63235724345</v>
+        <v>521636.86831255548</v>
       </c>
       <c r="I25">
-        <v>366615644.29059398</v>
+        <v>1296833995.4253819</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="D26">
-        <v>861005.12025265419</v>
+        <v>2784260.7112444248</v>
       </c>
       <c r="E26">
-        <v>834.87974734592717</v>
+        <v>440.08875557594001</v>
       </c>
       <c r="F26">
-        <v>38325</v>
+        <v>153300</v>
       </c>
       <c r="G26">
-        <v>1928142.995920788</v>
+        <v>15217564.334096299</v>
       </c>
       <c r="H26">
-        <v>241276.68898325411</v>
+        <v>1342608.0162945781</v>
       </c>
       <c r="I26">
-        <v>100870571.7615464</v>
+        <v>1304704451.0225101</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>894330.07009633153</v>
+        <v>4367852.6972184302</v>
       </c>
       <c r="E27">
-        <v>706.72990366863087</v>
+        <v>80.102781570632942</v>
       </c>
       <c r="F27">
-        <v>106762.5</v>
+        <v>66795</v>
       </c>
       <c r="G27">
-        <v>5461804.8397792429</v>
+        <v>9323023.7190441824</v>
       </c>
       <c r="H27">
-        <v>679036.24204749183</v>
+        <v>668805.9752478149</v>
       </c>
       <c r="I27">
-        <v>291870032.5192517</v>
+        <v>891803532.07293928</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C28">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>902774.1774873049</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1200.2225126952401</v>
-      </c>
-      <c r="F28">
-        <v>92527.5</v>
-      </c>
-      <c r="G28">
-        <v>4753506.9898528289</v>
-      </c>
-      <c r="H28">
-        <v>589996.42718624859</v>
-      </c>
-      <c r="I28">
-        <v>255348819.3259227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>910416.33119322499</v>
+        <v>861005.12025265419</v>
       </c>
       <c r="E29">
-        <v>1218.8688067749611</v>
+        <v>834.87974734592717</v>
       </c>
       <c r="F29">
-        <v>92527.5</v>
+        <v>38325</v>
       </c>
       <c r="G29">
-        <v>4771508.604119556</v>
+        <v>1928142.995920788</v>
       </c>
       <c r="H29">
-        <v>591341.11887032655</v>
+        <v>241276.68898325411</v>
       </c>
       <c r="I29">
-        <v>257510507.5738306</v>
+        <v>100870571.7615464</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>911149.43519020022</v>
+        <v>1502334.796195785</v>
       </c>
       <c r="E30">
-        <v>485.76480979984632</v>
+        <v>458.80380421504378</v>
       </c>
       <c r="F30">
-        <v>100740</v>
+        <v>35040</v>
       </c>
       <c r="G30">
-        <v>5196807.2408387614</v>
+        <v>2334890.3945825379</v>
       </c>
       <c r="H30">
-        <v>643960.47461814992</v>
+        <v>257074.71455862789</v>
       </c>
       <c r="I30">
-        <v>280581653.26249492</v>
+        <v>160914028.71636969</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="D31">
-        <v>1025254.85561234</v>
+        <v>911149.43519020022</v>
       </c>
       <c r="E31">
-        <v>529887.54438765987</v>
+        <v>485.76480979984632</v>
       </c>
       <c r="F31">
-        <v>19710</v>
+        <v>100740</v>
       </c>
       <c r="G31">
-        <v>1086446.0202632849</v>
+        <v>5196807.2408387614</v>
       </c>
       <c r="H31">
-        <v>130943.4618718713</v>
+        <v>643960.47461814992</v>
       </c>
       <c r="I31">
-        <v>63263721.70802296</v>
+        <v>280581653.26249492</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>1052880.9644907259</v>
+        <v>391641.43599484762</v>
       </c>
       <c r="E32">
-        <v>479.0355092746031</v>
+        <v>384652.9640051524</v>
       </c>
       <c r="F32">
-        <v>113880</v>
+        <v>27375</v>
       </c>
       <c r="G32">
-        <v>6285506.3396806791</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>757122.873960217</v>
+        <v>142006.85963762389</v>
       </c>
       <c r="I32">
-        <v>366515931.45577991</v>
+        <v>34278066.918636657</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="D33">
-        <v>1067015.432280906</v>
+        <v>10419604.20700068</v>
       </c>
       <c r="E33">
-        <v>389.36771909380332</v>
+        <v>360.59299932513392</v>
       </c>
       <c r="F33">
-        <v>67342.5</v>
+        <v>124830</v>
       </c>
       <c r="G33">
-        <v>3741132.2782076169</v>
+        <v>36653222.214881137</v>
       </c>
       <c r="H33">
-        <v>449356.73337824602</v>
+        <v>1635023.9730497389</v>
       </c>
       <c r="I33">
-        <v>219646470.89111781</v>
+        <v>3975829701.5748191</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="D34">
-        <v>1140716.737589298</v>
+        <v>894330.07009633153</v>
       </c>
       <c r="E34">
-        <v>742.46241070245742</v>
+        <v>706.72990366863087</v>
       </c>
       <c r="F34">
-        <v>60225.000000000007</v>
+        <v>106762.5</v>
       </c>
       <c r="G34">
-        <v>3458740.068416873</v>
+        <v>5461804.8397792429</v>
       </c>
       <c r="H34">
-        <v>409295.6048917303</v>
+        <v>679036.24204749183</v>
       </c>
       <c r="I34">
-        <v>210002627.52459821</v>
+        <v>291870032.5192517</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="D35">
-        <v>1165060.370570672</v>
+        <v>183965.42327697659</v>
       </c>
       <c r="E35">
-        <v>658.02942932787118</v>
+        <v>1170.576723023376</v>
       </c>
       <c r="F35">
-        <v>186150</v>
+        <v>81030</v>
       </c>
       <c r="G35">
-        <v>10805984.017522911</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1272468.250731159</v>
+        <v>346125.37417620141</v>
       </c>
       <c r="I35">
-        <v>662948553.37142646</v>
+        <v>45579360.409869052</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="D36">
-        <v>1173861.806682524</v>
+        <v>2738425.4328087182</v>
       </c>
       <c r="E36">
-        <v>794.19331747642718</v>
+        <v>310.56719128252013</v>
       </c>
       <c r="F36">
-        <v>54750</v>
+        <v>186150</v>
       </c>
       <c r="G36">
-        <v>3190505.7559331581</v>
+        <v>18261253.076824252</v>
       </c>
       <c r="H36">
-        <v>375032.83813372528</v>
+        <v>1622399.681157971</v>
       </c>
       <c r="I36">
-        <v>196458907.2564978</v>
+        <v>1558199794.271014</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="D37">
-        <v>1177878.9791555379</v>
+        <v>3142170.2670052159</v>
       </c>
       <c r="E37">
-        <v>607.42084446246736</v>
+        <v>34.532994782552123</v>
       </c>
       <c r="F37">
-        <v>35040</v>
+        <v>86505</v>
       </c>
       <c r="G37">
-        <v>2045498.995042586</v>
+        <v>9375127.6905025709</v>
       </c>
       <c r="H37">
-        <v>240246.66557616601</v>
+        <v>785060.22415404487</v>
       </c>
       <c r="I37">
-        <v>126163034.82426061</v>
+        <v>830860334.44088614</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D38">
-        <v>1181037.458462476</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>2.5415375236771069</v>
-      </c>
-      <c r="F38">
-        <v>108952.5</v>
-      </c>
-      <c r="G38">
-        <v>6368904.6547217211</v>
-      </c>
-      <c r="H38">
-        <v>747563.80114355381</v>
-      </c>
-      <c r="I38">
-        <v>393330653.18286192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D39">
-        <v>1181037.458462476</v>
+        <v>13454952.264687199</v>
       </c>
       <c r="E39">
-        <v>2.5415375236771069</v>
+        <v>1242.93531280756</v>
       </c>
       <c r="F39">
-        <v>59130.000000000007</v>
+        <v>62962.499999999993</v>
       </c>
       <c r="G39">
-        <v>3456490.9683916881</v>
+        <v>23352245.3123735</v>
       </c>
       <c r="H39">
-        <v>405713.01770604932</v>
+        <v>894524.81342878845</v>
       </c>
       <c r="I39">
-        <v>213465882.12939239</v>
+        <v>2589541528.557497</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>1188665.684284091</v>
+        <v>6521944.3693501754</v>
       </c>
       <c r="E40">
-        <v>35.115715909516439</v>
+        <v>1226.8306498253951</v>
       </c>
       <c r="F40">
-        <v>119355</v>
+        <v>32850</v>
       </c>
       <c r="G40">
-        <v>7000171.7106867386</v>
+        <v>6386391.9471835839</v>
       </c>
       <c r="H40">
-        <v>820395.08728877374</v>
+        <v>371704.45930927462</v>
       </c>
       <c r="I40">
-        <v>433668442.49174827</v>
+        <v>654897246.78065968</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="D41">
-        <v>1193530.718363659</v>
+        <v>3613599.4173359429</v>
       </c>
       <c r="E41">
-        <v>277.28163634147501</v>
+        <v>1021.382664055564</v>
       </c>
       <c r="F41">
-        <v>240900</v>
+        <v>64057.499999999993</v>
       </c>
       <c r="G41">
-        <v>14158689.505722539</v>
+        <v>7711125.2022136189</v>
       </c>
       <c r="H41">
-        <v>1657714.919620632</v>
+        <v>605966.07285222714</v>
       </c>
       <c r="I41">
-        <v>878884894.6990633</v>
+        <v>707575219.82134426</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>1208415.4743977161</v>
+        <v>4712313.7197748106</v>
       </c>
       <c r="E42">
-        <v>714.1256022839807</v>
+        <v>355.0802251896821</v>
       </c>
       <c r="F42">
-        <v>118260</v>
+        <v>63509.999999999993</v>
       </c>
       <c r="G42">
-        <v>6995498.8644078253</v>
+        <v>9421409.8334832136</v>
       </c>
       <c r="H42">
-        <v>816580.76930203405</v>
+        <v>650668.73437385296</v>
       </c>
       <c r="I42">
-        <v>436840646.32104158</v>
+        <v>914818034.04975784</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="D43">
-        <v>1210977.1569712509</v>
+        <v>1476533.783713239</v>
       </c>
       <c r="E43">
-        <v>706.04302874812856</v>
+        <v>723.81628676131368</v>
       </c>
       <c r="F43">
-        <v>136875</v>
+        <v>94170</v>
       </c>
       <c r="G43">
-        <v>8105566.225128388</v>
+        <v>6213199.8179954728</v>
       </c>
       <c r="H43">
-        <v>945669.61339996685</v>
+        <v>687539.43945985148</v>
       </c>
       <c r="I43">
-        <v>506674223.3159157</v>
+        <v>425033145.79788971</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="D44">
-        <v>1251030.041683564</v>
+        <v>2851599.4354906771</v>
       </c>
       <c r="E44">
-        <v>233.95831643603739</v>
+        <v>771.76450932363514</v>
       </c>
       <c r="F44">
-        <v>142350</v>
+        <v>94170</v>
       </c>
       <c r="G44">
-        <v>8574841.9417278767</v>
+        <v>9509387.8673284277</v>
       </c>
       <c r="H44">
-        <v>992384.22570068727</v>
+        <v>830548.42691310204</v>
       </c>
       <c r="I44">
-        <v>544359603.00304031</v>
+        <v>820849368.91891801</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="D45">
-        <v>1271383.4277640569</v>
+        <v>3808289.423958438</v>
       </c>
       <c r="E45">
-        <v>309.372235942923</v>
+        <v>404.97604156215681</v>
       </c>
       <c r="F45">
-        <v>193267.5</v>
+        <v>79935</v>
       </c>
       <c r="G45">
-        <v>11742145.817236271</v>
+        <v>10018517.61868397</v>
       </c>
       <c r="H45">
-        <v>1353393.2193354161</v>
+        <v>768099.47900314745</v>
       </c>
       <c r="I45">
-        <v>751099025.00113618</v>
+        <v>930520541.55146301</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C46">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="D46">
-        <v>1429875.267128573</v>
+        <v>1165060.370570672</v>
       </c>
       <c r="E46">
-        <v>140.7328714276664</v>
+        <v>658.02942932787118</v>
       </c>
       <c r="F46">
-        <v>92527.5</v>
+        <v>186150</v>
       </c>
       <c r="G46">
-        <v>5994871.0134576969</v>
+        <v>10805984.017522911</v>
       </c>
       <c r="H46">
-        <v>669495.02926160209</v>
+        <v>1272468.250731159</v>
       </c>
       <c r="I46">
-        <v>404415563.08801973</v>
+        <v>662948553.37142646</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>1476533.783713239</v>
+        <v>1177878.9791555379</v>
       </c>
       <c r="E47">
-        <v>723.81628676131368</v>
+        <v>607.42084446246736</v>
       </c>
       <c r="F47">
-        <v>94170</v>
+        <v>35040</v>
       </c>
       <c r="G47">
-        <v>6213199.8179954728</v>
+        <v>2045498.995042586</v>
       </c>
       <c r="H47">
-        <v>687539.43945985148</v>
+        <v>240246.66557616601</v>
       </c>
       <c r="I47">
-        <v>425033145.79788971</v>
+        <v>126163034.82426061</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D48">
-        <v>1485557.624522503</v>
+        <v>2858396.6278101932</v>
       </c>
       <c r="E48">
-        <v>637.57547749660444</v>
+        <v>358.5721898060292</v>
       </c>
       <c r="F48">
-        <v>71722.5</v>
+        <v>55297.5</v>
       </c>
       <c r="G48">
-        <v>4748613.8788842717</v>
+        <v>5593541.5574088152</v>
       </c>
       <c r="H48">
-        <v>524544.55982567836</v>
+        <v>488045.82561990042</v>
       </c>
       <c r="I48">
-        <v>325694573.10557169</v>
+        <v>483156042.39027548</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49">
-        <v>97.7</v>
+        <v>91</v>
       </c>
       <c r="D49">
-        <v>1495945.523371612</v>
+        <v>1792112.0461323219</v>
       </c>
       <c r="E49">
-        <v>464.07662838813849</v>
+        <v>515.15386767871678</v>
       </c>
       <c r="F49">
-        <v>53490.75</v>
+        <v>49822.5</v>
       </c>
       <c r="G49">
-        <v>3555656.731717675</v>
+        <v>3687432.1624935148</v>
       </c>
       <c r="H49">
-        <v>391971.32561781252</v>
+        <v>384210.56846753857</v>
       </c>
       <c r="I49">
-        <v>244600673.36757699</v>
+        <v>272931332.03020859</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D50">
-        <v>1502334.796195785</v>
+        <v>15238152.50625265</v>
       </c>
       <c r="E50">
-        <v>458.80380421504378</v>
+        <v>455.49374735262239</v>
       </c>
       <c r="F50">
-        <v>35040</v>
+        <v>41610</v>
       </c>
       <c r="G50">
-        <v>2334890.3945825379</v>
+        <v>17321493.17339408</v>
       </c>
       <c r="H50">
-        <v>257074.71455862789</v>
+        <v>615243.62216057489</v>
       </c>
       <c r="I50">
-        <v>160914028.71636969</v>
+        <v>1938150584.8056779</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D51">
-        <v>1547157.970916226</v>
+        <v>3826203.665847545</v>
       </c>
       <c r="E51">
-        <v>323.62908377451822</v>
+        <v>5873645.9341524541</v>
       </c>
       <c r="F51">
-        <v>73365</v>
+        <v>30660</v>
       </c>
       <c r="G51">
-        <v>4972372.9182923883</v>
+        <v>4071217.157456907</v>
       </c>
       <c r="H51">
-        <v>542716.31622672174</v>
+        <v>301225.85288874648</v>
       </c>
       <c r="I51">
-        <v>346964234.83061612</v>
+        <v>384350727.48238069</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C52">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D52">
-        <v>1550150.123481486</v>
+        <v>4083695.0377851329</v>
       </c>
       <c r="E52">
-        <v>1161.8765185140071</v>
+        <v>788.16221486777067</v>
       </c>
       <c r="F52">
-        <v>77745</v>
+        <v>43800</v>
       </c>
       <c r="G52">
-        <v>5275230.1340993484</v>
+        <v>5796677.9261132143</v>
       </c>
       <c r="H52">
-        <v>575434.19983311591</v>
+        <v>429775.04083282489</v>
       </c>
       <c r="I52">
-        <v>368398911.30482978</v>
+        <v>546749271.48876929</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C53">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>1552097.7908278271</v>
+        <v>3612850.4150951412</v>
       </c>
       <c r="E53">
-        <v>491.00917217379902</v>
+        <v>493.58490485977381</v>
       </c>
       <c r="F53">
-        <v>101287.5</v>
+        <v>60225.000000000007</v>
       </c>
       <c r="G53">
-        <v>6877599.6737257671</v>
+        <v>7248589.7179243825</v>
       </c>
       <c r="H53">
-        <v>749946.12926805683</v>
+        <v>569675.33593914646</v>
       </c>
       <c r="I53">
-        <v>480549621.84073591</v>
+        <v>665099227.60121882</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
       <c r="C54">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="D54">
-        <v>1552097.7908278271</v>
+        <v>590833.50271353743</v>
       </c>
       <c r="E54">
-        <v>491.00917217379902</v>
+        <v>324.89728646259749</v>
       </c>
       <c r="F54">
-        <v>65700</v>
+        <v>269917.5</v>
       </c>
       <c r="G54">
-        <v>4461145.7343086079</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>486451.54330900992</v>
+        <v>1538029.414112844</v>
       </c>
       <c r="I54">
-        <v>311707862.81561249</v>
+        <v>487488314.95549649</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>1569923.920844062</v>
+        <v>4525009.4199848212</v>
       </c>
       <c r="E55">
-        <v>540.07915593800135</v>
+        <v>1523192.1800151791</v>
       </c>
       <c r="F55">
-        <v>43800</v>
+        <v>27375</v>
       </c>
       <c r="G55">
-        <v>2993974.6850116961</v>
+        <v>3980093.892345706</v>
       </c>
       <c r="H55">
-        <v>325345.71778575541</v>
+        <v>278352.53021944332</v>
       </c>
       <c r="I55">
-        <v>210192195.61248031</v>
+        <v>384608370.40355122</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C56">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D56">
-        <v>1606194.9128013069</v>
+        <v>4137453.5640767291</v>
       </c>
       <c r="E56">
-        <v>19.487198693212122</v>
+        <v>655.23592327255756</v>
       </c>
       <c r="F56">
-        <v>88147.5</v>
+        <v>67342.5</v>
       </c>
       <c r="G56">
-        <v>6106704.4496608088</v>
+        <v>9004535.1524349619</v>
       </c>
       <c r="H56">
-        <v>658985.6671987552</v>
+        <v>663379.86261029355</v>
       </c>
       <c r="I56">
-        <v>432778193.4378022</v>
+        <v>851691795.75134099</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D57">
-        <v>1715734.9583331039</v>
+        <v>6578141.6962705059</v>
       </c>
       <c r="E57">
-        <v>284.24166689580312</v>
+        <v>1208.7037294950569</v>
       </c>
       <c r="F57">
-        <v>77197.5</v>
+        <v>82125</v>
       </c>
       <c r="G57">
-        <v>5563386.0656038811</v>
+        <v>16083458.73582672</v>
       </c>
       <c r="H57">
-        <v>587996.52429583645</v>
+        <v>931724.20426825271</v>
       </c>
       <c r="I57">
-        <v>404868213.12792462</v>
+        <v>1651350334.4647281</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="D58">
-        <v>1738319.033175265</v>
+        <v>1188665.684284091</v>
       </c>
       <c r="E58">
-        <v>682.56682473560795</v>
+        <v>35.115715909516439</v>
       </c>
       <c r="F58">
-        <v>54750</v>
+        <v>119355</v>
       </c>
       <c r="G58">
-        <v>3977164.5629239562</v>
+        <v>7000171.7106867386</v>
       </c>
       <c r="H58">
-        <v>418569.92957430688</v>
+        <v>820395.08728877374</v>
       </c>
       <c r="I58">
-        <v>290923274.33986372</v>
+        <v>433668442.49174827</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D59">
-        <v>1792112.0461323219</v>
+        <v>2270510.5225507109</v>
       </c>
       <c r="E59">
-        <v>515.15386767871678</v>
+        <v>916.67744928877801</v>
       </c>
       <c r="F59">
-        <v>49822.5</v>
+        <v>59677.500000000007</v>
       </c>
       <c r="G59">
-        <v>3687432.1624935148</v>
+        <v>5143577.2247502794</v>
       </c>
       <c r="H59">
-        <v>384210.56846753857</v>
+        <v>492523.41505258979</v>
       </c>
       <c r="I59">
-        <v>272931332.03020859</v>
+        <v>414189632.05209148</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D60">
-        <v>1868961.4751458999</v>
+        <v>5131988.4287267448</v>
       </c>
       <c r="E60">
-        <v>239035.3248541005</v>
+        <v>747.57127325702459</v>
       </c>
       <c r="F60">
-        <v>25732.5</v>
+        <v>55845</v>
       </c>
       <c r="G60">
-        <v>1962147.856717946</v>
+        <v>8880954.2832200266</v>
       </c>
       <c r="H60">
-        <v>201167.57299799251</v>
+        <v>587152.91372107586</v>
       </c>
       <c r="I60">
-        <v>147887311.5532009</v>
+        <v>876051831.47425175</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="D61">
-        <v>1948743.925842646</v>
+        <v>3979824.0605268711</v>
       </c>
       <c r="E61">
-        <v>929.67415735428222</v>
+        <v>1238.3394731306471</v>
       </c>
       <c r="F61">
-        <v>110595</v>
+        <v>44895</v>
       </c>
       <c r="G61">
-        <v>8626295.186165927</v>
+        <v>5822914.3747528736</v>
       </c>
       <c r="H61">
-        <v>873497.08307188889</v>
+        <v>437127.86695345928</v>
       </c>
       <c r="I61">
-        <v>658804930.77034211</v>
+        <v>546166490.20320547</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C62">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D62">
-        <v>1949666.799053879</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>6.8009461220353842</v>
-      </c>
-      <c r="F62">
-        <v>81030</v>
-      </c>
-      <c r="G62">
-        <v>6322070.3400543639</v>
-      </c>
-      <c r="H62">
-        <v>640070.6075095837</v>
-      </c>
-      <c r="I62">
-        <v>482906647.12900633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D63">
-        <v>1989069.2806604081</v>
+        <v>1949666.799053879</v>
       </c>
       <c r="E63">
-        <v>185.11933959182349</v>
+        <v>6.8009461220353842</v>
       </c>
       <c r="F63">
-        <v>99097.5</v>
+        <v>81030</v>
       </c>
       <c r="G63">
-        <v>7831136.5240523554</v>
+        <v>6322070.3400543639</v>
       </c>
       <c r="H63">
-        <v>787287.46967397002</v>
+        <v>640070.6075095837</v>
       </c>
       <c r="I63">
-        <v>602519875.39449465</v>
+        <v>482906647.12900633</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>301</v>
+        <v>453</v>
       </c>
       <c r="D64">
-        <v>1990890.190578352</v>
+        <v>523954.18142389512</v>
       </c>
       <c r="E64">
-        <v>917.80942164873704</v>
+        <v>810.61857610498555</v>
       </c>
       <c r="F64">
-        <v>164797.5</v>
+        <v>248017.5</v>
       </c>
       <c r="G64">
-        <v>13030832.692726159</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1309595.798639372</v>
+        <v>1369934.641192273</v>
       </c>
       <c r="I64">
-        <v>1002915106.509372</v>
+        <v>397250046.67611051</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65">
-        <v>175</v>
+        <v>440</v>
       </c>
       <c r="D65">
-        <v>2104688.1367607559</v>
+        <v>1193530.718363659</v>
       </c>
       <c r="E65">
-        <v>755.06323924451135</v>
+        <v>277.28163634147501</v>
       </c>
       <c r="F65">
-        <v>95812.5</v>
+        <v>240900</v>
       </c>
       <c r="G65">
-        <v>7853590.9565411313</v>
+        <v>14158689.505722539</v>
       </c>
       <c r="H65">
-        <v>773640.30868330621</v>
+        <v>1657714.919620632</v>
       </c>
       <c r="I65">
-        <v>616416271.51237762</v>
+        <v>878884894.6990633</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="D66">
-        <v>2132226.0235192971</v>
+        <v>1738319.033175265</v>
       </c>
       <c r="E66">
-        <v>29.976480702869591</v>
+        <v>682.56682473560795</v>
       </c>
       <c r="F66">
-        <v>101287.5</v>
+        <v>54750</v>
       </c>
       <c r="G66">
-        <v>8373280.6455137664</v>
+        <v>3977164.5629239562</v>
       </c>
       <c r="H66">
-        <v>820909.84308801871</v>
+        <v>418569.92957430688</v>
       </c>
       <c r="I66">
-        <v>660155513.36956406</v>
+        <v>290923274.33986372</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67">
-        <v>93.2</v>
+        <v>175</v>
       </c>
       <c r="D67">
-        <v>2212850.7318887492</v>
+        <v>4364300.8070658715</v>
       </c>
       <c r="E67">
-        <v>1120.4681112512769</v>
+        <v>1078.392934129573</v>
       </c>
       <c r="F67">
-        <v>51027</v>
+        <v>95812.5</v>
       </c>
       <c r="G67">
-        <v>4323112.6281171627</v>
+        <v>13364640.93100315</v>
       </c>
       <c r="H67">
-        <v>418012.61513360642</v>
+        <v>959120.66629275121</v>
       </c>
       <c r="I67">
-        <v>345159096.90966922</v>
+        <v>1278199808.6392219</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C68">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="D68">
-        <v>2270510.5225507109</v>
+        <v>1181037.458462476</v>
       </c>
       <c r="E68">
-        <v>916.67744928877801</v>
+        <v>2.5415375236771069</v>
       </c>
       <c r="F68">
-        <v>59677.500000000007</v>
+        <v>108952.5</v>
       </c>
       <c r="G68">
-        <v>5143577.2247502794</v>
+        <v>6368904.6547217211</v>
       </c>
       <c r="H68">
-        <v>492523.41505258979</v>
+        <v>747563.80114355381</v>
       </c>
       <c r="I68">
-        <v>414189632.05209148</v>
+        <v>393330653.18286192</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D69">
-        <v>2270510.5225507109</v>
+        <v>3204182.634133725</v>
       </c>
       <c r="E69">
-        <v>916.67744928877801</v>
+        <v>585.3658662752714</v>
       </c>
       <c r="F69">
-        <v>32850</v>
+        <v>68985</v>
       </c>
       <c r="G69">
-        <v>2831326.9127065749</v>
+        <v>7585307.9961862583</v>
       </c>
       <c r="H69">
-        <v>271113.80645096692</v>
+        <v>629689.53626918187</v>
       </c>
       <c r="I69">
-        <v>227994292.87271091</v>
+        <v>675666709.46087861</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="C70">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D70">
-        <v>2439066.35527127</v>
+        <v>263289.55175317847</v>
       </c>
       <c r="E70">
-        <v>898.44472872978076</v>
+        <v>1008.048246821505</v>
       </c>
       <c r="F70">
-        <v>32850</v>
+        <v>38325</v>
       </c>
       <c r="G70">
-        <v>2972272.7417162661</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>276800.11779753258</v>
+        <v>178255.21956626989</v>
       </c>
       <c r="I70">
-        <v>244919494.00453591</v>
+        <v>30849666.612438262</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C71">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D71">
-        <v>2589513.3914261339</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1113.808573866379</v>
-      </c>
-      <c r="F71">
-        <v>52012.5</v>
-      </c>
-      <c r="G71">
-        <v>4905301.439643654</v>
-      </c>
-      <c r="H71">
-        <v>445971.68713368312</v>
-      </c>
-      <c r="I71">
-        <v>411710088.96255583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D72">
-        <v>2593224.4943339392</v>
+        <v>4295598.4058952229</v>
       </c>
       <c r="E72">
-        <v>1233.10566606163</v>
+        <v>833.59410477848724</v>
       </c>
       <c r="F72">
-        <v>50917.5</v>
+        <v>70627.5</v>
       </c>
       <c r="G72">
-        <v>4806849.1746999612</v>
+        <v>9728113.6301151346</v>
       </c>
       <c r="H72">
-        <v>436765.52595068462</v>
+        <v>703636.09974214621</v>
       </c>
       <c r="I72">
-        <v>403620976.76654208</v>
+        <v>927381286.24172401</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C73">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="D73">
-        <v>2670320.029511916</v>
+        <v>3484992.7627905798</v>
       </c>
       <c r="E73">
-        <v>745.57048808317631</v>
+        <v>671.23720942041837</v>
       </c>
       <c r="F73">
-        <v>71175</v>
+        <v>131400</v>
       </c>
       <c r="G73">
-        <v>6858889.4715526775</v>
+        <v>15387473.90128839</v>
       </c>
       <c r="H73">
-        <v>615776.75814849662</v>
+        <v>1229668.063799517</v>
       </c>
       <c r="I73">
-        <v>580969510.88211405</v>
+        <v>1399774372.0398221</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C74">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>2684591.5790298409</v>
+        <v>3826203.665847545</v>
       </c>
       <c r="E74">
-        <v>518.82097015925683</v>
+        <v>365.93415245320648</v>
       </c>
       <c r="F74">
-        <v>123187.5</v>
+        <v>51465</v>
       </c>
       <c r="G74">
-        <v>11915873.639801631</v>
+        <v>6473744.5919232965</v>
       </c>
       <c r="H74">
-        <v>1067428.4440102191</v>
+        <v>495224.24281677988</v>
       </c>
       <c r="I74">
-        <v>1010894120.330354</v>
+        <v>601920149.7025677</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C75">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="D75">
-        <v>2738425.4328087182</v>
+        <v>87683.082750684203</v>
       </c>
       <c r="E75">
-        <v>310.56719128252013</v>
+        <v>416.11724931577919</v>
       </c>
       <c r="F75">
-        <v>186150</v>
+        <v>125925</v>
       </c>
       <c r="G75">
-        <v>18261253.076824252</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1622399.681157971</v>
+        <v>455483.52390165091</v>
       </c>
       <c r="I75">
-        <v>1558199794.271014</v>
+        <v>33758340.599715322</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
       </c>
       <c r="C76">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D76">
-        <v>2784260.7112444248</v>
+        <v>1990890.190578352</v>
       </c>
       <c r="E76">
-        <v>440.08875557594001</v>
+        <v>917.80942164873704</v>
       </c>
       <c r="F76">
-        <v>153300</v>
+        <v>164797.5</v>
       </c>
       <c r="G76">
-        <v>15217564.334096299</v>
+        <v>13030832.692726159</v>
       </c>
       <c r="H76">
-        <v>1342608.0162945781</v>
+        <v>1309595.798639372</v>
       </c>
       <c r="I76">
-        <v>1304704451.0225101</v>
+        <v>1002915106.509372</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C77">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="D77">
-        <v>2851599.4354906771</v>
+        <v>1868961.4751458999</v>
       </c>
       <c r="E77">
-        <v>771.76450932363514</v>
+        <v>239035.3248541005</v>
       </c>
       <c r="F77">
-        <v>94170</v>
+        <v>25732.5</v>
       </c>
       <c r="G77">
-        <v>9509387.8673284277</v>
+        <v>1962147.856717946</v>
       </c>
       <c r="H77">
-        <v>830548.42691310204</v>
+        <v>201167.57299799251</v>
       </c>
       <c r="I77">
-        <v>820849368.91891801</v>
+        <v>147887311.5532009</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
       <c r="C78">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D78">
-        <v>2858396.6278101932</v>
+        <v>273300.04276622972</v>
       </c>
       <c r="E78">
-        <v>358.5721898060292</v>
+        <v>1211.9572337701679</v>
       </c>
       <c r="F78">
-        <v>55297.5</v>
+        <v>68437.5</v>
       </c>
       <c r="G78">
-        <v>5593541.5574088152</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>488045.82561990042</v>
+        <v>321205.44644527673</v>
       </c>
       <c r="I78">
-        <v>483156042.39027548</v>
+        <v>57184829.956361279</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D79">
-        <v>2871658.3474799599</v>
+        <v>2104688.1367607559</v>
       </c>
       <c r="E79">
-        <v>1141.652520040981</v>
+        <v>755.06323924451135</v>
       </c>
       <c r="F79">
-        <v>106762.5</v>
+        <v>95812.5</v>
       </c>
       <c r="G79">
-        <v>10835552.26466368</v>
+        <v>7853590.9565411313</v>
       </c>
       <c r="H79">
-        <v>943551.98504657112</v>
+        <v>773640.30868330621</v>
       </c>
       <c r="I79">
-        <v>937165864.51965916</v>
+        <v>616416271.51237762</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
       </c>
       <c r="C80">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D80">
-        <v>3142170.2670052159</v>
+        <v>6806250.7967955098</v>
       </c>
       <c r="E80">
-        <v>34.532994782552123</v>
+        <v>370.00320449238637</v>
       </c>
       <c r="F80">
-        <v>86505</v>
+        <v>89790</v>
       </c>
       <c r="G80">
-        <v>9375127.6905025709</v>
+        <v>18105861.615743618</v>
       </c>
       <c r="H80">
-        <v>785060.22415404487</v>
+        <v>1029466.350714452</v>
       </c>
       <c r="I80">
-        <v>830860334.44088614</v>
+        <v>1868073251.3140249</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C81">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="D81">
-        <v>3204182.634133725</v>
+        <v>6789412.5279809292</v>
       </c>
       <c r="E81">
-        <v>585.3658662752714</v>
+        <v>609.8720190722961</v>
       </c>
       <c r="F81">
-        <v>68985</v>
+        <v>136875</v>
       </c>
       <c r="G81">
-        <v>7585307.9961862583</v>
+        <v>27541770.51689662</v>
       </c>
       <c r="H81">
-        <v>629689.53626918187</v>
+        <v>1568107.992382729</v>
       </c>
       <c r="I81">
-        <v>675666709.46087861</v>
+        <v>2840632377.2304902</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C82">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D82">
-        <v>3222835.7253765431</v>
+        <v>1552097.7908278271</v>
       </c>
       <c r="E82">
-        <v>1084.274623457924</v>
+        <v>491.00917217379902</v>
       </c>
       <c r="F82">
-        <v>92527.5</v>
+        <v>101287.5</v>
       </c>
       <c r="G82">
-        <v>10217933.456515331</v>
+        <v>6877599.6737257671</v>
       </c>
       <c r="H82">
-        <v>846037.02580566483</v>
+        <v>749946.12926805683</v>
       </c>
       <c r="I82">
-        <v>911533664.72472847</v>
+        <v>480549621.84073591</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C83">
-        <v>55.6</v>
+        <v>95</v>
       </c>
       <c r="D83">
-        <v>3350029.109192715</v>
+        <v>2589513.3914261339</v>
       </c>
       <c r="E83">
-        <v>2312578.890807285</v>
+        <v>1113.808573866379</v>
       </c>
       <c r="F83">
-        <v>30441</v>
+        <v>52012.5</v>
       </c>
       <c r="G83">
-        <v>3544022.1930347909</v>
+        <v>4905301.439643654</v>
       </c>
       <c r="H83">
-        <v>284220.82010253781</v>
+        <v>445971.68713368312</v>
       </c>
       <c r="I83">
-        <v>321790229.46582621</v>
+        <v>411710088.96255583</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C84">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D84">
-        <v>3355820.9370635338</v>
+        <v>706164.1817318463</v>
       </c>
       <c r="E84">
-        <v>886.26293646695558</v>
+        <v>1183.0182681535371</v>
       </c>
       <c r="F84">
-        <v>79387.5</v>
+        <v>43800</v>
       </c>
       <c r="G84">
-        <v>9035586.2851036377</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>734637.58780395146</v>
+        <v>261544.1142542189</v>
       </c>
       <c r="I84">
-        <v>814353842.94219601</v>
+        <v>94552000.335302278</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="D85">
-        <v>3484992.7627905798</v>
+        <v>14169614.515221059</v>
       </c>
       <c r="E85">
-        <v>671.23720942041837</v>
+        <v>311.8847789382562</v>
       </c>
       <c r="F85">
-        <v>113880</v>
+        <v>43800</v>
       </c>
       <c r="G85">
-        <v>13335810.71444994</v>
+        <v>17041793.279714771</v>
       </c>
       <c r="H85">
-        <v>1065712.321959581</v>
+        <v>632677.6011695147</v>
       </c>
       <c r="I85">
-        <v>1213137789.1011789</v>
+        <v>1897096709.5615449</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>240</v>
+        <v>82.6</v>
       </c>
       <c r="D86">
-        <v>3484992.7627905798</v>
+        <v>3910492.8597488711</v>
       </c>
       <c r="E86">
-        <v>671.23720942041837</v>
+        <v>345.54025113023818</v>
       </c>
       <c r="F86">
-        <v>131400</v>
+        <v>45223.5</v>
       </c>
       <c r="G86">
-        <v>15387473.90128839</v>
+        <v>5785660.9732010262</v>
       </c>
       <c r="H86">
-        <v>1229668.063799517</v>
+        <v>438012.31359791913</v>
       </c>
       <c r="I86">
-        <v>1399774372.0398221</v>
+        <v>540572989.15290952</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D87">
-        <v>3510400.9006626671</v>
+        <v>4481618.4161316836</v>
       </c>
       <c r="E87">
-        <v>799.09933733195066</v>
+        <v>1226.3838683168869</v>
       </c>
       <c r="F87">
-        <v>62414.999999999993</v>
+        <v>37777.5</v>
       </c>
       <c r="G87">
-        <v>7349427.5958232097</v>
+        <v>5382309.9123644102</v>
       </c>
       <c r="H87">
-        <v>585355.98777824349</v>
+        <v>381206.43951583392</v>
       </c>
       <c r="I87">
-        <v>669741478.07765353</v>
+        <v>517524041.37563741</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C88">
-        <v>166</v>
+        <v>97.7</v>
       </c>
       <c r="D88">
-        <v>3592327.2271030191</v>
+        <v>1495945.523371612</v>
       </c>
       <c r="E88">
-        <v>587.97289698151872</v>
+        <v>464.07662838813849</v>
       </c>
       <c r="F88">
-        <v>90885</v>
+        <v>53490.75</v>
       </c>
       <c r="G88">
-        <v>10891310.89227324</v>
+        <v>3555656.731717675</v>
       </c>
       <c r="H88">
-        <v>858234.07931274711</v>
+        <v>391971.32561781252</v>
       </c>
       <c r="I88">
-        <v>997994862.37713766</v>
+        <v>244600673.36757699</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
       </c>
       <c r="C89">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D89">
-        <v>3610223.8724249098</v>
+        <v>1547157.970916226</v>
       </c>
       <c r="E89">
-        <v>566.52757508959621</v>
+        <v>323.62908377451822</v>
       </c>
       <c r="F89">
-        <v>88147.5</v>
+        <v>73365</v>
       </c>
       <c r="G89">
-        <v>10603413.704093279</v>
+        <v>4972372.9182923883</v>
       </c>
       <c r="H89">
-        <v>833617.0728214999</v>
+        <v>542716.31622672174</v>
       </c>
       <c r="I89">
-        <v>972756631.23446441</v>
+        <v>346964234.83061612</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="D90">
-        <v>3612850.4150951412</v>
+        <v>417925.29040491697</v>
       </c>
       <c r="E90">
-        <v>493.58490485977381</v>
+        <v>865.10959508293308</v>
       </c>
       <c r="F90">
-        <v>60225.000000000007</v>
+        <v>107310</v>
       </c>
       <c r="G90">
-        <v>7248589.7179243825</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>569675.33593914646</v>
+        <v>559499.87179301679</v>
       </c>
       <c r="I90">
-        <v>665099227.60121882</v>
+        <v>137100107.46660411</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
       </c>
       <c r="C91">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D91">
-        <v>3613599.4173359429</v>
+        <v>3659164.735001117</v>
       </c>
       <c r="E91">
-        <v>1021.382664055564</v>
+        <v>144.0649988818914</v>
       </c>
       <c r="F91">
-        <v>64057.499999999993</v>
+        <v>54750</v>
       </c>
       <c r="G91">
-        <v>7711125.2022136189</v>
+        <v>6654151.0147484466</v>
       </c>
       <c r="H91">
-        <v>605966.07285222714</v>
+        <v>519856.52618082101</v>
       </c>
       <c r="I91">
-        <v>707575219.82134426</v>
+        <v>612383898.20255911</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D92">
-        <v>3659164.735001117</v>
+        <v>1067015.432280906</v>
       </c>
       <c r="E92">
-        <v>144.0649988818914</v>
+        <v>389.36771909380332</v>
       </c>
       <c r="F92">
-        <v>54750</v>
+        <v>67342.5</v>
       </c>
       <c r="G92">
-        <v>6654151.0147484466</v>
+        <v>3741132.2782076169</v>
       </c>
       <c r="H92">
-        <v>519856.52618082101</v>
+        <v>449356.73337824602</v>
       </c>
       <c r="I92">
-        <v>612383898.20255911</v>
+        <v>219646470.89111781</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
       </c>
       <c r="C93">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="D93">
-        <v>3798901.464780835</v>
+        <v>1569923.920844062</v>
       </c>
       <c r="E93">
-        <v>855.33521916624159</v>
+        <v>540.07915593800135</v>
       </c>
       <c r="F93">
-        <v>200385</v>
+        <v>43800</v>
       </c>
       <c r="G93">
-        <v>25067135.194461469</v>
+        <v>2993974.6850116961</v>
       </c>
       <c r="H93">
-        <v>1924092.4766118389</v>
+        <v>325345.71778575541</v>
       </c>
       <c r="I93">
-        <v>2326937355.222753</v>
+        <v>210192195.61248031</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C94">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D94">
-        <v>3808289.423958438</v>
+        <v>1550150.123481486</v>
       </c>
       <c r="E94">
-        <v>404.97604156215681</v>
+        <v>1161.8765185140071</v>
       </c>
       <c r="F94">
-        <v>79935</v>
+        <v>77745</v>
       </c>
       <c r="G94">
-        <v>10018517.61868397</v>
+        <v>5275230.1340993484</v>
       </c>
       <c r="H94">
-        <v>768099.47900314745</v>
+        <v>575434.19983311591</v>
       </c>
       <c r="I94">
-        <v>930520541.55146301</v>
+        <v>368398911.30482978</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
       </c>
       <c r="C95">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D95">
-        <v>3817377.686296958</v>
+        <v>2270510.5225507109</v>
       </c>
       <c r="E95">
-        <v>254.31370304268779</v>
+        <v>916.67744928877801</v>
       </c>
       <c r="F95">
-        <v>45990</v>
+        <v>32850</v>
       </c>
       <c r="G95">
-        <v>5774709.8343114154</v>
+        <v>2831326.9127065749</v>
       </c>
       <c r="H95">
-        <v>442235.09394806722</v>
+        <v>271113.80645096692</v>
       </c>
       <c r="I95">
-        <v>536644609.96379232</v>
+        <v>227994292.87271091</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C96">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="D96">
-        <v>3826203.665847545</v>
+        <v>2684591.5790298409</v>
       </c>
       <c r="E96">
-        <v>5873645.9341524541</v>
+        <v>518.82097015925683</v>
       </c>
       <c r="F96">
-        <v>30660</v>
+        <v>123187.5</v>
       </c>
       <c r="G96">
-        <v>4071217.157456907</v>
+        <v>11915873.639801631</v>
       </c>
       <c r="H96">
-        <v>301225.85288874648</v>
+        <v>1067428.4440102191</v>
       </c>
       <c r="I96">
-        <v>384350727.48238069</v>
+        <v>1010894120.330354</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
       </c>
       <c r="C97">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D97">
-        <v>3826203.665847545</v>
+        <v>1173861.806682524</v>
       </c>
       <c r="E97">
-        <v>365.93415245320648</v>
+        <v>794.19331747642718</v>
       </c>
       <c r="F97">
-        <v>51465</v>
+        <v>54750</v>
       </c>
       <c r="G97">
-        <v>6473744.5919232965</v>
+        <v>3190505.7559331581</v>
       </c>
       <c r="H97">
-        <v>495224.24281677988</v>
+        <v>375032.83813372528</v>
       </c>
       <c r="I97">
-        <v>601920149.7025677</v>
+        <v>196458907.2564978</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
       </c>
       <c r="C98">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="D98">
-        <v>3844470.7674771291</v>
+        <v>1485557.624522503</v>
       </c>
       <c r="E98">
-        <v>1250.832522870973</v>
+        <v>637.57547749660444</v>
       </c>
       <c r="F98">
-        <v>109500</v>
+        <v>71722.5</v>
       </c>
       <c r="G98">
-        <v>13824956.65106234</v>
+        <v>4748613.8788842717</v>
       </c>
       <c r="H98">
-        <v>1055174.243779459</v>
+        <v>524544.55982567836</v>
       </c>
       <c r="I98">
-        <v>1286809244.8617511</v>
+        <v>325694573.10557169</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D99">
-        <v>3851308.5995221571</v>
+        <v>1025254.85561234</v>
       </c>
       <c r="E99">
-        <v>797.00047784438357</v>
+        <v>529887.54438765987</v>
       </c>
       <c r="F99">
-        <v>53655</v>
+        <v>19710</v>
       </c>
       <c r="G99">
-        <v>6783538.8267945834</v>
+        <v>1086446.0202632849</v>
       </c>
       <c r="H99">
-        <v>517309.48845015827</v>
+        <v>130943.4618718713</v>
       </c>
       <c r="I99">
-        <v>631654511.05863047</v>
+        <v>63263721.70802296</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
       </c>
       <c r="C100">
-        <v>82.6</v>
+        <v>161</v>
       </c>
       <c r="D100">
-        <v>3910492.8597488711</v>
+        <v>1606194.9128013069</v>
       </c>
       <c r="E100">
-        <v>345.54025113023818</v>
+        <v>19.487198693212122</v>
       </c>
       <c r="F100">
-        <v>45223.5</v>
+        <v>88147.5</v>
       </c>
       <c r="G100">
-        <v>5785660.9732010262</v>
+        <v>6106704.4496608088</v>
       </c>
       <c r="H100">
-        <v>438012.31359791913</v>
+        <v>658985.6671987552</v>
       </c>
       <c r="I100">
-        <v>540572989.15290952</v>
+        <v>432778193.4378022</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
       </c>
       <c r="C101">
-        <v>82</v>
+        <v>69.5</v>
       </c>
       <c r="D101">
-        <v>3979824.0605268711</v>
+        <v>4381877.8747683177</v>
       </c>
       <c r="E101">
-        <v>1238.3394731306471</v>
+        <v>99.72523168195039</v>
       </c>
       <c r="F101">
-        <v>44895</v>
+        <v>38051.25</v>
       </c>
       <c r="G101">
-        <v>5822914.3747528736</v>
+        <v>5324652.4587992597</v>
       </c>
       <c r="H101">
-        <v>437127.86695345928</v>
+        <v>381368.60914890643</v>
       </c>
       <c r="I101">
-        <v>546166490.20320547</v>
+        <v>509667026.7585398</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C102">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="D102">
-        <v>4083695.0377851329</v>
+        <v>1715734.9583331039</v>
       </c>
       <c r="E102">
-        <v>788.16221486777067</v>
+        <v>284.24166689580312</v>
       </c>
       <c r="F102">
-        <v>43800</v>
+        <v>77197.5</v>
       </c>
       <c r="G102">
-        <v>5796677.9261132143</v>
+        <v>5563386.0656038811</v>
       </c>
       <c r="H102">
-        <v>429775.04083282489</v>
+        <v>587996.52429583645</v>
       </c>
       <c r="I102">
-        <v>546749271.48876929</v>
+        <v>404868213.12792462</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C103">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D103">
-        <v>4137453.5640767291</v>
+        <v>618250.2394497986</v>
       </c>
       <c r="E103">
-        <v>655.23592327255756</v>
+        <v>997.76055020152126</v>
       </c>
       <c r="F103">
-        <v>67342.5</v>
+        <v>68437.5</v>
       </c>
       <c r="G103">
-        <v>9004535.1524349619</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>663379.86261029355</v>
+        <v>394616.95491473819</v>
       </c>
       <c r="I103">
-        <v>851691795.75134099</v>
+        <v>129344541.7950491</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
       </c>
       <c r="C104">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D104">
-        <v>4227103.2748707132</v>
+        <v>1429875.267128573</v>
       </c>
       <c r="E104">
-        <v>381.52512928517541</v>
+        <v>140.7328714276664</v>
       </c>
       <c r="F104">
-        <v>60225.000000000007</v>
+        <v>92527.5</v>
       </c>
       <c r="G104">
-        <v>8190252.8242616653</v>
+        <v>5994871.0134576969</v>
       </c>
       <c r="H104">
-        <v>597102.54665265791</v>
+        <v>669495.02926160209</v>
       </c>
       <c r="I104">
-        <v>778176979.42374194</v>
+        <v>404415563.08801973</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C105">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D105">
-        <v>4295598.4058952229</v>
+        <v>910416.33119322499</v>
       </c>
       <c r="E105">
-        <v>833.59410477848724</v>
+        <v>1218.8688067749611</v>
       </c>
       <c r="F105">
-        <v>70627.5</v>
+        <v>92527.5</v>
       </c>
       <c r="G105">
-        <v>9728113.6301151346</v>
+        <v>4771508.604119556</v>
       </c>
       <c r="H105">
-        <v>703636.09974214621</v>
+        <v>591341.11887032655</v>
       </c>
       <c r="I105">
-        <v>927381286.24172401</v>
+        <v>257510507.5738306</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
       </c>
       <c r="C106">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="D106">
-        <v>4329064.9522864027</v>
+        <v>1989069.2806604081</v>
       </c>
       <c r="E106">
-        <v>563.84771359758452</v>
+        <v>185.11933959182349</v>
       </c>
       <c r="F106">
-        <v>37230</v>
+        <v>99097.5</v>
       </c>
       <c r="G106">
-        <v>5159701.9768182896</v>
+        <v>7831136.5240523554</v>
       </c>
       <c r="H106">
-        <v>371776.80726584792</v>
+        <v>787287.46967397002</v>
       </c>
       <c r="I106">
-        <v>492659274.34802032</v>
+        <v>602519875.39449465</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
       </c>
       <c r="C107">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D107">
-        <v>4364300.8070658715</v>
+        <v>10710607.029415799</v>
       </c>
       <c r="E107">
-        <v>1078.392934129573</v>
+        <v>468.17058420507237</v>
       </c>
       <c r="F107">
-        <v>95812.5</v>
+        <v>77745</v>
       </c>
       <c r="G107">
-        <v>13364640.93100315</v>
+        <v>23403791.134075291</v>
       </c>
       <c r="H107">
-        <v>959120.66629275121</v>
+        <v>1027213.68117272</v>
       </c>
       <c r="I107">
-        <v>1278199808.6392219</v>
+        <v>2545331306.6157598</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
       </c>
       <c r="C108">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D108">
-        <v>4367852.6972184302</v>
+        <v>12524739.025065869</v>
       </c>
       <c r="E108">
-        <v>80.102781570632942</v>
+        <v>668.97493413835764</v>
       </c>
       <c r="F108">
-        <v>66795</v>
+        <v>40515</v>
       </c>
       <c r="G108">
-        <v>9323023.7190441824</v>
+        <v>14067292.12593824</v>
       </c>
       <c r="H108">
-        <v>668805.9752478149</v>
+        <v>562586.91411766689</v>
       </c>
       <c r="I108">
-        <v>891803532.07293928</v>
+        <v>1551109621.1018231</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
       </c>
       <c r="C109">
-        <v>69.5</v>
+        <v>140</v>
       </c>
       <c r="D109">
-        <v>4381877.8747683177</v>
+        <v>8123186.8865249306</v>
       </c>
       <c r="E109">
-        <v>99.72523168195039</v>
+        <v>1091.513475069776</v>
       </c>
       <c r="F109">
-        <v>38051.25</v>
+        <v>76650</v>
       </c>
       <c r="G109">
-        <v>5324652.4587992597</v>
+        <v>18025809.94423724</v>
       </c>
       <c r="H109">
-        <v>381368.60914890643</v>
+        <v>928451.80848737922</v>
       </c>
       <c r="I109">
-        <v>509667026.7585398</v>
+        <v>1903260404.657234</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C110">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="D110">
-        <v>4412400.7849741634</v>
+        <v>4421130.4583189348</v>
       </c>
       <c r="E110">
-        <v>220.01502583641559</v>
+        <v>427.9416810660623</v>
       </c>
       <c r="F110">
-        <v>120997.5</v>
+        <v>82672.5</v>
       </c>
       <c r="G110">
-        <v>17025656.789330751</v>
+        <v>11651306.362531129</v>
       </c>
       <c r="H110">
-        <v>1215239.367963993</v>
+        <v>830817.72489999852</v>
       </c>
       <c r="I110">
-        <v>1631958991.0264871</v>
+        <v>1117257415.400301</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
       </c>
       <c r="C111">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="D111">
-        <v>4421130.4583189348</v>
+        <v>2439066.35527127</v>
       </c>
       <c r="E111">
-        <v>427.9416810660623</v>
+        <v>898.44472872978076</v>
       </c>
       <c r="F111">
-        <v>82672.5</v>
+        <v>32850</v>
       </c>
       <c r="G111">
-        <v>11651306.362531129</v>
+        <v>2972272.7417162661</v>
       </c>
       <c r="H111">
-        <v>830817.72489999852</v>
+        <v>276800.11779753258</v>
       </c>
       <c r="I111">
-        <v>1117257415.400301</v>
+        <v>244919494.00453591</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C112">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="D112">
-        <v>4481618.4161316836</v>
+        <v>4412400.7849741634</v>
       </c>
       <c r="E112">
-        <v>1226.3838683168869</v>
+        <v>220.01502583641559</v>
       </c>
       <c r="F112">
-        <v>37777.5</v>
+        <v>120997.5</v>
       </c>
       <c r="G112">
-        <v>5382309.9123644102</v>
+        <v>17025656.789330751</v>
       </c>
       <c r="H112">
-        <v>381206.43951583392</v>
+        <v>1215239.367963993</v>
       </c>
       <c r="I112">
-        <v>517524041.37563741</v>
+        <v>1631958991.0264871</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C113">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D113">
-        <v>4525009.4199848212</v>
+        <v>1552097.7908278271</v>
       </c>
       <c r="E113">
-        <v>1523192.1800151791</v>
+        <v>491.00917217379902</v>
       </c>
       <c r="F113">
-        <v>27375</v>
+        <v>65700</v>
       </c>
       <c r="G113">
-        <v>3980093.892345706</v>
+        <v>4461145.7343086079</v>
       </c>
       <c r="H113">
-        <v>278352.53021944332</v>
+        <v>486451.54330900992</v>
       </c>
       <c r="I113">
-        <v>384608370.40355122</v>
+        <v>311707862.81561249</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C114">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="D114">
-        <v>4579427.7800276186</v>
+        <v>1181037.458462476</v>
       </c>
       <c r="E114">
-        <v>453.81997238006443</v>
+        <v>2.5415375236771069</v>
       </c>
       <c r="F114">
-        <v>90885</v>
+        <v>59130.000000000007</v>
       </c>
       <c r="G114">
-        <v>13174942.85005353</v>
+        <v>3456490.9683916881</v>
       </c>
       <c r="H114">
-        <v>923105.06551724672</v>
+        <v>405713.01770604932</v>
       </c>
       <c r="I114">
-        <v>1272220289.749218</v>
+        <v>213465882.12939239</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C115">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D115">
-        <v>4712313.7197748106</v>
+        <v>6521944.3693501754</v>
       </c>
       <c r="E115">
-        <v>355.0802251896821</v>
+        <v>1226.8306498253951</v>
       </c>
       <c r="F115">
-        <v>63509.999999999993</v>
+        <v>65700</v>
       </c>
       <c r="G115">
-        <v>9421409.8334832136</v>
+        <v>12772783.89436717</v>
       </c>
       <c r="H115">
-        <v>650668.73437385296</v>
+        <v>743408.91861854913</v>
       </c>
       <c r="I115">
-        <v>914818034.04975784</v>
+        <v>1309794493.5613191</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C116">
-        <v>94.8</v>
+        <v>166</v>
       </c>
       <c r="D116">
-        <v>4800812.524010757</v>
+        <v>3592327.2271030191</v>
       </c>
       <c r="E116">
-        <v>1232.2759892439351</v>
+        <v>587.97289698151872</v>
       </c>
       <c r="F116">
-        <v>51903</v>
+        <v>90885</v>
       </c>
       <c r="G116">
-        <v>7816544.5998596651</v>
+        <v>10891310.89227324</v>
       </c>
       <c r="H116">
-        <v>534761.17599178455</v>
+        <v>858234.07931274711</v>
       </c>
       <c r="I116">
-        <v>761674299.70254111</v>
+        <v>997994862.37713766</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
       </c>
       <c r="C117">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D117">
-        <v>4950510.0136397742</v>
+        <v>1140716.737589298</v>
       </c>
       <c r="E117">
-        <v>920.38636022573337</v>
+        <v>742.46241070245742</v>
       </c>
       <c r="F117">
-        <v>54202.5</v>
+        <v>60225.000000000007</v>
       </c>
       <c r="G117">
-        <v>8369369.4147933051</v>
+        <v>3458740.068416873</v>
       </c>
       <c r="H117">
-        <v>563680.17952485813</v>
+        <v>409295.6048917303</v>
       </c>
       <c r="I117">
-        <v>820219174.29696727</v>
+        <v>210002627.52459821</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
       </c>
       <c r="C118">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="D118">
-        <v>4971580.7217816291</v>
+        <v>9029825.997492969</v>
       </c>
       <c r="E118">
-        <v>278.47821837151417</v>
+        <v>980.40250703226775</v>
       </c>
       <c r="F118">
-        <v>141255</v>
+        <v>32850</v>
       </c>
       <c r="G118">
-        <v>21886739.09931739</v>
+        <v>8483475.2301856112</v>
       </c>
       <c r="H118">
-        <v>1470878.3585246401</v>
+        <v>411303.71530358162</v>
       </c>
       <c r="I118">
-        <v>2146625779.921839</v>
+        <v>906721345.47432709</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
       </c>
       <c r="C119">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D119">
-        <v>5131988.4287267448</v>
+        <v>12605070.53186537</v>
       </c>
       <c r="E119">
-        <v>747.57127325702459</v>
+        <v>775.86813462339342</v>
       </c>
       <c r="F119">
-        <v>55845</v>
+        <v>54750</v>
       </c>
       <c r="G119">
-        <v>8880954.2832200266</v>
+        <v>19121816.662635092</v>
       </c>
       <c r="H119">
-        <v>587152.91372107586</v>
+        <v>761804.16614023119</v>
       </c>
       <c r="I119">
-        <v>876051831.47425175</v>
+        <v>2109538870.5594759</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D120">
-        <v>5160195.4704907881</v>
+        <v>7612485.5060933866</v>
       </c>
       <c r="E120">
-        <v>630.12950921279844</v>
+        <v>1072.8939066138121</v>
       </c>
       <c r="F120">
-        <v>54750</v>
+        <v>56392.5</v>
       </c>
       <c r="G120">
-        <v>8746121.5220713355</v>
+        <v>12528743.914245579</v>
       </c>
       <c r="H120">
-        <v>576601.1532818526</v>
+        <v>669395.47748257127</v>
       </c>
       <c r="I120">
-        <v>863594039.34019709</v>
+        <v>1312222768.5131061</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
         <v>26</v>
       </c>
       <c r="C121">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D121">
-        <v>5579282.379472902</v>
+        <v>3817377.686296958</v>
       </c>
       <c r="E121">
-        <v>333.62052709958522</v>
+        <v>254.31370304268779</v>
       </c>
       <c r="F121">
-        <v>84315</v>
+        <v>45990</v>
       </c>
       <c r="G121">
-        <v>14368462.23381824</v>
+        <v>5774709.8343114154</v>
       </c>
       <c r="H121">
-        <v>909375.31438235322</v>
+        <v>442235.09394806722</v>
       </c>
       <c r="I121">
-        <v>1437941704.5571761</v>
+        <v>536644609.96379232</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B122" t="s">
         <v>26</v>
       </c>
       <c r="C122">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="D122">
-        <v>6189056.6020970251</v>
+        <v>2593224.4943339392</v>
       </c>
       <c r="E122">
-        <v>869.79790297569707</v>
+        <v>1233.10566606163</v>
       </c>
       <c r="F122">
-        <v>70627.5</v>
+        <v>50917.5</v>
       </c>
       <c r="G122">
-        <v>13132236.37332378</v>
+        <v>4806849.1746999612</v>
       </c>
       <c r="H122">
-        <v>786371.47680891212</v>
+        <v>436765.52595068462</v>
       </c>
       <c r="I122">
-        <v>1336158633.6172521</v>
+        <v>403620976.76654208</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s">
         <v>26</v>
       </c>
       <c r="C123">
-        <v>90</v>
+        <v>94.8</v>
       </c>
       <c r="D123">
-        <v>6425548.2199597256</v>
+        <v>9706744.4122094717</v>
       </c>
       <c r="E123">
-        <v>586.18004027428105</v>
+        <v>765.9877905305475</v>
       </c>
       <c r="F123">
-        <v>49275</v>
+        <v>51903</v>
       </c>
       <c r="G123">
-        <v>9458640.4912773147</v>
+        <v>14298220.492898449</v>
       </c>
       <c r="H123">
-        <v>555001.89399346395</v>
+        <v>664795.92419144581</v>
       </c>
       <c r="I123">
-        <v>967822137.29421782</v>
+        <v>1540013530.680707</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
         <v>43</v>
       </c>
       <c r="C124">
-        <v>60</v>
+        <v>94.8</v>
       </c>
       <c r="D124">
-        <v>6521944.3693501754</v>
+        <v>4800812.524010757</v>
       </c>
       <c r="E124">
-        <v>1226.8306498253951</v>
+        <v>1232.2759892439351</v>
       </c>
       <c r="F124">
-        <v>32850</v>
+        <v>51903</v>
       </c>
       <c r="G124">
-        <v>6386391.9471835839</v>
+        <v>7816544.5998596651</v>
       </c>
       <c r="H124">
-        <v>371704.45930927462</v>
+        <v>534761.17599178455</v>
       </c>
       <c r="I124">
-        <v>654897246.78065968</v>
+        <v>761674299.70254111</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C125">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D125">
-        <v>6521944.3693501754</v>
+        <v>4950510.0136397742</v>
       </c>
       <c r="E125">
-        <v>1226.8306498253951</v>
+        <v>920.38636022573337</v>
       </c>
       <c r="F125">
-        <v>65700</v>
+        <v>54202.5</v>
       </c>
       <c r="G125">
-        <v>12772783.89436717</v>
+        <v>8369369.4147933051</v>
       </c>
       <c r="H125">
-        <v>743408.91861854913</v>
+        <v>563680.17952485813</v>
       </c>
       <c r="I125">
-        <v>1309794493.5613191</v>
+        <v>820219174.29696727</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
         <v>26</v>
       </c>
       <c r="C126">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D126">
-        <v>6578141.6962705059</v>
+        <v>6189056.6020970251</v>
       </c>
       <c r="E126">
-        <v>1208.7037294950569</v>
+        <v>869.79790297569707</v>
       </c>
       <c r="F126">
-        <v>82125</v>
+        <v>70627.5</v>
       </c>
       <c r="G126">
-        <v>16083458.73582672</v>
+        <v>13132236.37332378</v>
       </c>
       <c r="H126">
-        <v>931724.20426825271</v>
+        <v>786371.47680891212</v>
       </c>
       <c r="I126">
-        <v>1651350334.4647281</v>
+        <v>1336158633.6172521</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C127">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="D127">
-        <v>6789412.5279809292</v>
+        <v>2871658.3474799599</v>
       </c>
       <c r="E127">
-        <v>609.8720190722961</v>
+        <v>1141.652520040981</v>
       </c>
       <c r="F127">
-        <v>136875</v>
+        <v>106762.5</v>
       </c>
       <c r="G127">
-        <v>27541770.51689662</v>
+        <v>10835552.26466368</v>
       </c>
       <c r="H127">
-        <v>1568107.992382729</v>
+        <v>943551.98504657112</v>
       </c>
       <c r="I127">
-        <v>2840632377.2304902</v>
+        <v>937165864.51965916</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
         <v>26</v>
       </c>
       <c r="C128">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D128">
-        <v>6806250.7967955098</v>
+        <v>15219046.27740423</v>
       </c>
       <c r="E128">
-        <v>370.00320449238637</v>
+        <v>409.72259576711798</v>
       </c>
       <c r="F128">
-        <v>89790</v>
+        <v>57487.5</v>
       </c>
       <c r="G128">
-        <v>18105861.615743618</v>
+        <v>23903048.040015571</v>
       </c>
       <c r="H128">
-        <v>1029466.350714452</v>
+        <v>849664.59608019865</v>
       </c>
       <c r="I128">
-        <v>1868073251.3140249</v>
+        <v>2674350251.465209</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
         <v>26</v>
       </c>
       <c r="C129">
-        <v>103</v>
+        <v>84.8</v>
       </c>
       <c r="D129">
-        <v>7612485.5060933866</v>
+        <v>614070.58966228622</v>
       </c>
       <c r="E129">
-        <v>1072.8939066138121</v>
+        <v>70.210337713593617</v>
       </c>
       <c r="F129">
-        <v>56392.5</v>
+        <v>46428</v>
       </c>
       <c r="G129">
-        <v>12528743.914245579</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>669395.47748257127</v>
+        <v>267228.81982648151</v>
       </c>
       <c r="I129">
-        <v>1312222768.5131061</v>
+        <v>87148010.052982032</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
       </c>
       <c r="C130">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D130">
-        <v>8123186.8865249306</v>
+        <v>4579427.7800276186</v>
       </c>
       <c r="E130">
-        <v>1091.513475069776</v>
+        <v>453.81997238006443</v>
       </c>
       <c r="F130">
-        <v>76650</v>
+        <v>90885</v>
       </c>
       <c r="G130">
-        <v>18025809.94423724</v>
+        <v>13174942.85005353</v>
       </c>
       <c r="H130">
-        <v>928451.80848737922</v>
+        <v>923105.06551724672</v>
       </c>
       <c r="I130">
-        <v>1903260404.657234</v>
+        <v>1272220289.749218</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
         <v>26</v>
       </c>
       <c r="C131">
-        <v>58.2</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D131">
-        <v>8810473.3051850926</v>
+        <v>12079483.93314309</v>
       </c>
       <c r="E131">
-        <v>1818886.6948149081</v>
+        <v>320.86685690935701</v>
       </c>
       <c r="F131">
-        <v>31864.5</v>
+        <v>38270.25</v>
       </c>
       <c r="G131">
-        <v>8120057.2365799444</v>
+        <v>12854116.266112929</v>
       </c>
       <c r="H131">
-        <v>397094.17133410712</v>
+        <v>525323.86124700727</v>
       </c>
       <c r="I131">
-        <v>866441014.43425596</v>
+        <v>1413081130.573549</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
         <v>26</v>
       </c>
       <c r="C132">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D132">
-        <v>9029825.997492969</v>
+        <v>2670320.029511916</v>
       </c>
       <c r="E132">
-        <v>980.40250703226775</v>
+        <v>745.57048808317631</v>
       </c>
       <c r="F132">
-        <v>32850</v>
+        <v>71175</v>
       </c>
       <c r="G132">
-        <v>8483475.2301856112</v>
+        <v>6858889.4715526775</v>
       </c>
       <c r="H132">
-        <v>411303.71530358162</v>
+        <v>615776.75814849662</v>
       </c>
       <c r="I132">
-        <v>906721345.47432709</v>
+        <v>580969510.88211405</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
       </c>
       <c r="C133">
-        <v>94.8</v>
+        <v>93.2</v>
       </c>
       <c r="D133">
-        <v>9706744.4122094717</v>
+        <v>2212850.7318887492</v>
       </c>
       <c r="E133">
-        <v>765.9877905305475</v>
+        <v>1120.4681112512769</v>
       </c>
       <c r="F133">
-        <v>51903</v>
+        <v>51027</v>
       </c>
       <c r="G133">
-        <v>14298220.492898449</v>
+        <v>4323112.6281171627</v>
       </c>
       <c r="H133">
-        <v>664795.92419144581</v>
+        <v>418012.61513360642</v>
       </c>
       <c r="I133">
-        <v>1540013530.680707</v>
+        <v>345159096.90966922</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C134">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="D134">
-        <v>10419604.20700068</v>
+        <v>552741.29329579161</v>
       </c>
       <c r="E134">
-        <v>360.59299932513392</v>
+        <v>113.1067042084469</v>
       </c>
       <c r="F134">
-        <v>124830</v>
+        <v>32850</v>
       </c>
       <c r="G134">
-        <v>36653222.214881137</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>1635023.9730497389</v>
+        <v>183970.58663052789</v>
       </c>
       <c r="I134">
-        <v>3975829701.5748191</v>
+        <v>55503238.072597191</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
         <v>26</v>
       </c>
       <c r="C135">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D135">
-        <v>10710607.029415799</v>
+        <v>3355820.9370635338</v>
       </c>
       <c r="E135">
-        <v>468.17058420507237</v>
+        <v>886.26293646695558</v>
       </c>
       <c r="F135">
-        <v>77745</v>
+        <v>79387.5</v>
       </c>
       <c r="G135">
-        <v>23403791.134075291</v>
+        <v>9035586.2851036377</v>
       </c>
       <c r="H135">
-        <v>1027213.68117272</v>
+        <v>734637.58780395146</v>
       </c>
       <c r="I135">
-        <v>2545331306.6157598</v>
+        <v>814353842.94219601</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C136">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D136">
-        <v>10762395.482559299</v>
+        <v>26627.120672718531</v>
       </c>
       <c r="E136">
-        <v>1028.517440700904</v>
+        <v>185.6793272814248</v>
       </c>
       <c r="F136">
-        <v>39420</v>
+        <v>36135</v>
       </c>
       <c r="G136">
-        <v>11918703.97408572</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>521636.86831255548</v>
+        <v>102804.7729855715</v>
       </c>
       <c r="I136">
-        <v>1296833995.4253819</v>
+        <v>2942055.4193990789</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>26</v>
       </c>
       <c r="C137">
-        <v>69.900000000000006</v>
+        <v>169</v>
       </c>
       <c r="D137">
-        <v>12079483.93314309</v>
+        <v>3222835.7253765431</v>
       </c>
       <c r="E137">
-        <v>320.86685690935701</v>
+        <v>1084.274623457924</v>
       </c>
       <c r="F137">
-        <v>38270.25</v>
+        <v>92527.5</v>
       </c>
       <c r="G137">
-        <v>12854116.266112929</v>
+        <v>10217933.456515331</v>
       </c>
       <c r="H137">
-        <v>525323.86124700727</v>
+        <v>846037.02580566483</v>
       </c>
       <c r="I137">
-        <v>1413081130.573549</v>
+        <v>911533664.72472847</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C138">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="D138">
-        <v>12524739.025065869</v>
+        <v>563732.86201927438</v>
       </c>
       <c r="E138">
-        <v>668.97493413835764</v>
+        <v>612.73798072524369</v>
       </c>
       <c r="F138">
-        <v>40515</v>
+        <v>143445</v>
       </c>
       <c r="G138">
-        <v>14067292.12593824</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>562586.91411766689</v>
+        <v>807458.09474708256</v>
       </c>
       <c r="I138">
-        <v>1551109621.1018231</v>
+        <v>247193891.9020558</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>26</v>
       </c>
       <c r="C139">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D139">
-        <v>12605070.53186537</v>
+        <v>6425548.2199597256</v>
       </c>
       <c r="E139">
-        <v>775.86813462339342</v>
+        <v>586.18004027428105</v>
       </c>
       <c r="F139">
-        <v>54750</v>
+        <v>49275</v>
       </c>
       <c r="G139">
-        <v>19121816.662635092</v>
+        <v>9458640.4912773147</v>
       </c>
       <c r="H139">
-        <v>761804.16614023119</v>
+        <v>555001.89399346395</v>
       </c>
       <c r="I139">
-        <v>2109538870.5594759</v>
+        <v>967822137.29421782</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
       </c>
       <c r="C140">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="D140">
-        <v>13454952.264687199</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1242.93531280756</v>
-      </c>
-      <c r="F140">
-        <v>62962.499999999993</v>
-      </c>
-      <c r="G140">
-        <v>23352245.3123735</v>
-      </c>
-      <c r="H140">
-        <v>894524.81342878845</v>
-      </c>
-      <c r="I140">
-        <v>2589541528.557497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
         <v>26</v>
       </c>
       <c r="C141">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="D141">
-        <v>14169614.515221059</v>
+        <v>5579282.379472902</v>
       </c>
       <c r="E141">
-        <v>311.8847789382562</v>
+        <v>333.62052709958522</v>
       </c>
       <c r="F141">
-        <v>43800</v>
+        <v>84315</v>
       </c>
       <c r="G141">
-        <v>17041793.279714771</v>
+        <v>14368462.23381824</v>
       </c>
       <c r="H141">
-        <v>632677.6011695147</v>
+        <v>909375.31438235322</v>
       </c>
       <c r="I141">
-        <v>1897096709.5615449</v>
+        <v>1437941704.5571761</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C142">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D142">
-        <v>15219046.27740423</v>
+        <v>503645.24511633668</v>
       </c>
       <c r="E142">
-        <v>409.72259576711798</v>
+        <v>690.75488366326317</v>
       </c>
       <c r="F142">
-        <v>57487.5</v>
+        <v>99645</v>
       </c>
       <c r="G142">
-        <v>23903048.040015571</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>849664.59608019865</v>
+        <v>544820.88925636117</v>
       </c>
       <c r="I142">
-        <v>2674350251.465209</v>
+        <v>153414002.83210969</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C143">
-        <v>76</v>
+        <v>493</v>
       </c>
       <c r="D143">
-        <v>15238152.50625265</v>
+        <v>655014.48229774763</v>
       </c>
       <c r="E143">
-        <v>455.49374735262239</v>
+        <v>1260.7177022523249</v>
       </c>
       <c r="F143">
-        <v>41610</v>
+        <v>269917.5</v>
       </c>
       <c r="G143">
-        <v>17321493.17339408</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>615243.62216057489</v>
+        <v>1580127.7314158189</v>
       </c>
       <c r="I143">
-        <v>1938150584.8056779</v>
+        <v>540477899.16135478</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I143">
-    <sortState ref="A2:I143">
-      <sortCondition ref="D1:D143"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27137,7 +27124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -57782,64 +57769,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3693</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1">
         <v>113961239.6422077</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3694</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2">
         <v>62403412627.939857</v>
       </c>
-      <c r="C2" s="8">
-        <f>B2/20666</f>
-        <v>3019617.3728800858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3695</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>547.58453684657513</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3696</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>214347738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>11018100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>B2/B6</f>
-        <v>5.6637181209046803</v>
       </c>
     </row>
   </sheetData>
@@ -57849,250 +57814,255 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3697</v>
       </c>
       <c r="B1">
-        <v>2.1164889039136429E-2</v>
+        <v>1.9265691423028228E-2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3706</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3707</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>3708</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3698</v>
       </c>
       <c r="B2">
-        <v>3.319071067843982E-3</v>
-      </c>
-      <c r="E2" t="s">
+        <v>1.419873451735778E-3</v>
+      </c>
+      <c r="D2" t="s">
         <v>3709</v>
       </c>
+      <c r="E2" s="2">
+        <f>B2</f>
+        <v>1.419873451735778E-3</v>
+      </c>
       <c r="F2" s="2">
-        <f>B2</f>
-        <v>3.319071067843982E-3</v>
-      </c>
-      <c r="G2" s="2">
         <v>1.0720159774436089E-3</v>
       </c>
-      <c r="H2" s="3">
-        <f>F2/G2</f>
-        <v>3.0961022388479975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <f>E2/F2</f>
+        <v>1.3244890762931445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3699</v>
       </c>
       <c r="B3">
         <v>1.6896332665113239E-3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>3710</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
         <f>B3</f>
         <v>1.6896332665113239E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1.6708437761069337E-3</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="0">F3/G3</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G11" si="0">E3/F3</f>
         <v>1.0112455100070274</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3700</v>
       </c>
       <c r="B4">
         <v>2.5665322918134192E-3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>3711</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <f>B4+B6</f>
         <v>1.1177568889591746E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1.0917141049236674E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>1.0238549487618172</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3701</v>
       </c>
       <c r="B5">
         <v>4.97861581518938E-3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>3712</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <f>B5</f>
         <v>4.97861581518938E-3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>4.7113670269326021E-3</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
+      <c r="G5" s="3">
+        <f>E5/F5</f>
         <v>1.056724255768877</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3702</v>
       </c>
       <c r="B6">
         <v>8.6110365977783276E-3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>3713</v>
       </c>
+      <c r="E6" s="5">
+        <f>SUM(E2:E5)</f>
+        <v>1.9265691423028228E-2</v>
+      </c>
       <c r="F6" s="5">
-        <v>2.1164889039136429E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.9219734405882444E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1012061141000287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(F2:F5)</f>
+        <v>1.837136782971982E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <f>E6/F6</f>
+        <v>1.0486802943361484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3703</v>
       </c>
       <c r="B7">
-        <v>1.9091978771925911E-2</v>
-      </c>
+        <v>1.7736147809173989E-2</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3704</v>
       </c>
       <c r="B8">
-        <v>2.0771077379822471E-2</v>
-      </c>
-      <c r="E8" t="s">
+        <v>1.9415246417070549E-2</v>
+      </c>
+      <c r="D8" t="s">
         <v>3714</v>
       </c>
+      <c r="E8" s="2">
+        <f>B7</f>
+        <v>1.7736147809173989E-2</v>
+      </c>
       <c r="F8" s="2">
-        <f>B7</f>
-        <v>1.9091978771925911E-2</v>
-      </c>
-      <c r="G8" s="2">
         <v>2.1092569162809806E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>0.90515188664587554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.84087185739545545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3705</v>
       </c>
       <c r="B9">
         <v>1.8131524020104759E-4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>3715</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2">
         <f>B9</f>
         <v>1.8131524020104759E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>7.5137705230484406E-4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0.24131059052823653</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3701</v>
       </c>
       <c r="B10">
         <v>1.4977833676955131E-3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>3716</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2">
         <f>B10</f>
         <v>1.4977833676955131E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>4.3555464894734506E-3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0.34387955020463634</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
         <v>3717</v>
+      </c>
+      <c r="E11" s="5">
+        <f>SUM(E8:E10)</f>
+        <v>1.9415246417070549E-2</v>
       </c>
       <c r="F11" s="5">
         <f>SUM(F8:F10)</f>
-        <v>2.0771077379822471E-2</v>
-      </c>
-      <c r="G11" s="5">
         <v>2.6199492704588101E-2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>0.79280456358550044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="10">
+        <v>0.74105428818743946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <f>E11+E6</f>
+        <v>3.8680937840098781E-2</v>
+      </c>
+      <c r="F13" s="5">
         <f>F11+F6</f>
-        <v>4.19359664189589E-2</v>
-      </c>
-      <c r="G13" s="10">
-        <f>G11+G6</f>
-        <v>4.5419227110470542E-2</v>
-      </c>
-      <c r="H13" s="3">
-        <f>F13/G13</f>
-        <v>0.92330867535373273</v>
+        <v>4.4570860534307921E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>E13/F13</f>
+        <v>0.86785261438523409</v>
       </c>
     </row>
   </sheetData>

--- a/reports/report_optimized_mobility vs FAINTERU.xlsx
+++ b/reports/report_optimized_mobility vs FAINTERU.xlsx
@@ -57817,7 +57817,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57834,7 +57834,7 @@
         <v>3697</v>
       </c>
       <c r="B1">
-        <v>1.9265691423028228E-2</v>
+        <v>1.950855146384298E-2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3706</v>
@@ -57851,21 +57851,21 @@
         <v>3698</v>
       </c>
       <c r="B2">
-        <v>1.419873451735778E-3</v>
+        <v>1.399395175839555E-3</v>
       </c>
       <c r="D2" t="s">
         <v>3709</v>
       </c>
       <c r="E2" s="2">
         <f>B2</f>
-        <v>1.419873451735778E-3</v>
+        <v>1.399395175839555E-3</v>
       </c>
       <c r="F2" s="2">
         <v>1.0720159774436089E-3</v>
       </c>
       <c r="G2" s="3">
         <f>E2/F2</f>
-        <v>1.3244890762931445</v>
+        <v>1.3053864916982241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -57873,21 +57873,21 @@
         <v>3699</v>
       </c>
       <c r="B3">
-        <v>1.6896332665113239E-3</v>
+        <v>1.6915180282765961E-3</v>
       </c>
       <c r="D3" t="s">
         <v>3710</v>
       </c>
       <c r="E3" s="2">
         <f>B3</f>
-        <v>1.6896332665113239E-3</v>
+        <v>1.6915180282765961E-3</v>
       </c>
       <c r="F3" s="2">
         <v>1.6708437761069337E-3</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G11" si="0">E3/F3</f>
-        <v>1.0112455100070274</v>
+        <v>1.012373539923543</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -57895,21 +57895,21 @@
         <v>3700</v>
       </c>
       <c r="B4">
-        <v>2.5665322918134192E-3</v>
+        <v>2.5583319977321461E-3</v>
       </c>
       <c r="D4" t="s">
         <v>3711</v>
       </c>
       <c r="E4" s="2">
         <f>B4+B6</f>
-        <v>1.1177568889591746E-2</v>
+        <v>1.1367925019371946E-2</v>
       </c>
       <c r="F4" s="2">
         <v>1.0917141049236674E-2</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>1.0238549487618172</v>
+        <v>1.0412913937909405</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -57917,21 +57917,21 @@
         <v>3701</v>
       </c>
       <c r="B5">
-        <v>4.97861581518938E-3</v>
+        <v>5.04971324035488E-3</v>
       </c>
       <c r="D5" t="s">
         <v>3712</v>
       </c>
       <c r="E5" s="2">
         <f>B5</f>
-        <v>4.97861581518938E-3</v>
+        <v>5.04971324035488E-3</v>
       </c>
       <c r="F5" s="2">
         <v>4.7113670269326021E-3</v>
       </c>
       <c r="G5" s="3">
         <f>E5/F5</f>
-        <v>1.056724255768877</v>
+        <v>1.0718148706072179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -57939,14 +57939,14 @@
         <v>3702</v>
       </c>
       <c r="B6">
-        <v>8.6110365977783276E-3</v>
+        <v>8.8095930216398003E-3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3713</v>
       </c>
       <c r="E6" s="5">
         <f>SUM(E2:E5)</f>
-        <v>1.9265691423028228E-2</v>
+        <v>1.9508551463842977E-2</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(F2:F5)</f>
@@ -57954,7 +57954,7 @@
       </c>
       <c r="G6" s="6">
         <f>E6/F6</f>
-        <v>1.0486802943361484</v>
+        <v>1.0618997803899777</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -57962,7 +57962,7 @@
         <v>3703</v>
       </c>
       <c r="B7">
-        <v>1.7736147809173989E-2</v>
+        <v>1.7484888989276179E-2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -57973,21 +57973,21 @@
         <v>3704</v>
       </c>
       <c r="B8">
-        <v>1.9415246417070549E-2</v>
+        <v>1.907933447798003E-2</v>
       </c>
       <c r="D8" t="s">
         <v>3714</v>
       </c>
       <c r="E8" s="2">
         <f>B7</f>
-        <v>1.7736147809173989E-2</v>
+        <v>1.7484888989276179E-2</v>
       </c>
       <c r="F8" s="2">
         <v>2.1092569162809806E-2</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>0.84087185739545545</v>
+        <v>0.82895966130599918</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -57995,21 +57995,21 @@
         <v>3705</v>
       </c>
       <c r="B9">
-        <v>1.8131524020104759E-4</v>
+        <v>1.693072731237646E-4</v>
       </c>
       <c r="D9" t="s">
         <v>3715</v>
       </c>
       <c r="E9" s="2">
         <f>B9</f>
-        <v>1.8131524020104759E-4</v>
+        <v>1.693072731237646E-4</v>
       </c>
       <c r="F9" s="2">
         <v>7.5137705230484406E-4</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0.24131059052823653</v>
+        <v>0.22532931050318303</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -58017,21 +58017,21 @@
         <v>3701</v>
       </c>
       <c r="B10">
-        <v>1.4977833676955131E-3</v>
+        <v>1.425138215580092E-3</v>
       </c>
       <c r="D10" t="s">
         <v>3716</v>
       </c>
       <c r="E10" s="2">
         <f>B10</f>
-        <v>1.4977833676955131E-3</v>
+        <v>1.425138215580092E-3</v>
       </c>
       <c r="F10" s="2">
         <v>4.3555464894734506E-3</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.34387955020463634</v>
+        <v>0.32720078158375471</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -58040,7 +58040,7 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(E8:E10)</f>
-        <v>1.9415246417070549E-2</v>
+        <v>1.9079334477980034E-2</v>
       </c>
       <c r="F11" s="5">
         <f>SUM(F8:F10)</f>
@@ -58048,13 +58048,13 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>0.74105428818743946</v>
+        <v>0.72823297355825622</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" s="5">
         <f>E11+E6</f>
-        <v>3.8680937840098781E-2</v>
+        <v>3.8587885941823011E-2</v>
       </c>
       <c r="F13" s="5">
         <f>F11+F6</f>
@@ -58062,7 +58062,7 @@
       </c>
       <c r="G13" s="6">
         <f>E13/F13</f>
-        <v>0.86785261438523409</v>
+        <v>0.86576488493239701</v>
       </c>
     </row>
   </sheetData>

--- a/reports/report_optimized_mobility vs FAINTERU.xlsx
+++ b/reports/report_optimized_mobility vs FAINTERU.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="3718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7739" uniqueCount="3723">
   <si>
     <t>capacity</t>
   </si>
@@ -11140,15 +11140,9 @@
     <t>eac_detour</t>
   </si>
   <si>
-    <t>PYTHON</t>
-  </si>
-  <si>
     <t>FAINTERU</t>
   </si>
   <si>
-    <t>PYTHON / FAINTERU</t>
-  </si>
-  <si>
     <t>Mano de obra</t>
   </si>
   <si>
@@ -11174,6 +11168,27 @@
   </si>
   <si>
     <t>Total infraestructura</t>
+  </si>
+  <si>
+    <t>PYTHON (con deriv)</t>
+  </si>
+  <si>
+    <t>PYTHON (sin deriv)</t>
+  </si>
+  <si>
+    <t>con deriv</t>
+  </si>
+  <si>
+    <t>sin deriv</t>
+  </si>
+  <si>
+    <t>PYTHON (con deriv) / FAINTERU</t>
+  </si>
+  <si>
+    <t>PYTHON (sin deriv) / FAINTERU</t>
+  </si>
+  <si>
+    <t>PYTHON (con deriv) / (sin deriv)</t>
   </si>
 </sst>
 </file>
@@ -11220,7 +11235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11241,6 +11256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57771,15 +57787,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3693</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="8">
         <v>113961239.6422077</v>
       </c>
     </row>
@@ -57787,7 +57809,7 @@
       <c r="A2" t="s">
         <v>3694</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>62403412627.939857</v>
       </c>
     </row>
@@ -57795,7 +57817,7 @@
       <c r="A3" t="s">
         <v>3695</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>547.58453684657513</v>
       </c>
     </row>
@@ -57803,7 +57825,7 @@
       <c r="A4" t="s">
         <v>3696</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>214347738</v>
       </c>
     </row>
@@ -57814,258 +57836,438 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3697</v>
       </c>
-      <c r="B1">
-        <v>1.950855146384298E-2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>2.0036729254890709E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.622335287913196E-2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3706</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B3">
+        <v>1.3958249877629831E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.2602076574719601E-3</v>
+      </c>
+      <c r="E3" t="s">
         <v>3707</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="2">
+        <f>B3</f>
+        <v>1.3958249877629831E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <f>C3</f>
+        <v>1.2602076574719601E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.0720159774436089E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <f>F3/H3</f>
+        <v>1.3020561420097001</v>
+      </c>
+      <c r="J3" s="3">
+        <f>G3/H3</f>
+        <v>1.1755493238795973</v>
+      </c>
+      <c r="K3" s="3">
+        <f>F3/G3</f>
+        <v>1.1076150660463993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B4">
+        <v>1.689646833281861E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.6810027649205759E-3</v>
+      </c>
+      <c r="E4" t="s">
         <v>3708</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3698</v>
-      </c>
-      <c r="B2">
-        <v>1.399395175839555E-3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F4" s="2">
+        <f>B4</f>
+        <v>1.689646833281861E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <f>C4</f>
+        <v>1.6810027649205759E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.6708437761069337E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:J12" si="0">F4/H4</f>
+        <v>1.0112536297191941</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J7" si="1">G4/H4</f>
+        <v>1.0060801548049649</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K14" si="2">F4/G4</f>
+        <v>1.0051422094845237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B5">
+        <v>2.6128854043421601E-3</v>
+      </c>
+      <c r="C5">
+        <v>3.04766263183043E-3</v>
+      </c>
+      <c r="E5" t="s">
         <v>3709</v>
       </c>
-      <c r="E2" s="2">
-        <f>B2</f>
-        <v>1.399395175839555E-3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.0720159774436089E-3</v>
-      </c>
-      <c r="G2" s="3">
-        <f>E2/F2</f>
-        <v>1.3053864916982241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3699</v>
-      </c>
-      <c r="B3">
-        <v>1.6915180282765961E-3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F5" s="2">
+        <f>B5+B7</f>
+        <v>1.1742860611088375E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f>C5+C7</f>
+        <v>1.6231571963682832E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.0917141049236674E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0756351464296081</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4867969453245951</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72345800131757543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B6">
+        <v>5.208396822757492E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.0505704930565842E-3</v>
+      </c>
+      <c r="E6" t="s">
         <v>3710</v>
       </c>
-      <c r="E3" s="2">
-        <f>B3</f>
-        <v>1.6915180282765961E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.6708437761069337E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G11" si="0">E3/F3</f>
-        <v>1.012373539923543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3700</v>
-      </c>
-      <c r="B4">
-        <v>2.5583319977321461E-3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6" s="2">
+        <f>B6</f>
+        <v>5.208396822757492E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <f>C6</f>
+        <v>7.0505704930565842E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.7113670269326021E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <f>F6/H6</f>
+        <v>1.1054958768832086</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4965020667572468</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73871991321648811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B7">
+        <v>9.1299752067462141E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.31839093318524E-2</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>3711</v>
       </c>
-      <c r="E4" s="2">
-        <f>B4+B6</f>
-        <v>1.1367925019371946E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0917141049236674E-2</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F7" s="5">
+        <f>SUM(F3:F6)</f>
+        <v>2.0036729254890712E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f>SUM(G3:G6)</f>
+        <v>2.6223352879131953E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <f>SUM(H3:H6)</f>
+        <v>1.837136782971982E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <f>F7/H7</f>
+        <v>1.0906498329687131</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4274033987120862</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.76407961053811546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B8">
+        <v>1.7055446487135029E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.529732565816971E-2</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B9">
+        <v>1.861212746954239E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.1407996008519049E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3712</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B8</f>
+        <v>1.7055446487135029E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f>C8</f>
+        <v>1.529732565816971E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.1092569162809806E-2</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>1.0412913937909405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>0.80859976589324223</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9:J14" si="3">G9/H9</f>
+        <v>0.72524714936774004</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1149299471196374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B10">
+        <v>1.650375019959496E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.0244675759066889E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F10" s="2">
+        <f>B10</f>
+        <v>1.650375019959496E-4</v>
+      </c>
+      <c r="G10" s="2">
+        <f>C10</f>
+        <v>1.0244675759066889E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.5137705230484406E-4</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21964671597262408</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3634533723969098</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16109587641159434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3701</v>
       </c>
-      <c r="B5">
-        <v>5.04971324035488E-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3712</v>
-      </c>
-      <c r="E5" s="2">
-        <f>B5</f>
-        <v>5.04971324035488E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.7113670269326021E-3</v>
-      </c>
-      <c r="G5" s="3">
-        <f>E5/F5</f>
-        <v>1.0718148706072179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3702</v>
-      </c>
-      <c r="B6">
-        <v>8.8095930216398003E-3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3713</v>
-      </c>
-      <c r="E6" s="5">
-        <f>SUM(E2:E5)</f>
-        <v>1.9508551463842977E-2</v>
-      </c>
-      <c r="F6" s="5">
-        <f>SUM(F2:F5)</f>
-        <v>1.837136782971982E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <f>E6/F6</f>
-        <v>1.0618997803899777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3703</v>
-      </c>
-      <c r="B7">
-        <v>1.7484888989276179E-2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3704</v>
-      </c>
-      <c r="B8">
-        <v>1.907933447798003E-2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B11">
+        <v>1.391643480411412E-3</v>
+      </c>
+      <c r="C11">
+        <v>5.0862027744426573E-3</v>
+      </c>
+      <c r="E11" t="s">
         <v>3714</v>
       </c>
-      <c r="E8" s="2">
-        <f>B7</f>
-        <v>1.7484888989276179E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.1092569162809806E-2</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F11" s="2">
+        <f>B11</f>
+        <v>1.391643480411412E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <f>C11</f>
+        <v>5.0862027744426573E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.3555464894734506E-3</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>0.82895966130599918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3705</v>
-      </c>
-      <c r="B9">
-        <v>1.693072731237646E-4</v>
-      </c>
-      <c r="D9" t="s">
+        <v>0.3195106478084338</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1677530676655772</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27361148230349652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
         <v>3715</v>
       </c>
-      <c r="E9" s="2">
-        <f>B9</f>
-        <v>1.693072731237646E-4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.5137705230484406E-4</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F12" s="5">
+        <f>SUM(F9:F11)</f>
+        <v>1.861212746954239E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G9:G11)</f>
+        <v>2.1407996008519056E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H9:H11)</f>
+        <v>2.6199492704588101E-2</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>0.22532931050318303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3701</v>
-      </c>
-      <c r="B10">
-        <v>1.425138215580092E-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3716</v>
-      </c>
-      <c r="E10" s="2">
-        <f>B10</f>
-        <v>1.425138215580092E-3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4.3555464894734506E-3</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.32720078158375471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
-        <v>3717</v>
-      </c>
-      <c r="E11" s="5">
-        <f>SUM(E8:E10)</f>
-        <v>1.9079334477980034E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <f>SUM(F8:F10)</f>
-        <v>2.6199492704588101E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.72823297355825622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="5">
-        <f>E11+E6</f>
-        <v>3.8587885941823011E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <f>F11+F6</f>
+        <v>0.71040029970820773</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.81711490561685762</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.86940073522696459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <f>F12+F7</f>
+        <v>3.8648856724433106E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f>G12+G7</f>
+        <v>4.7631348887651012E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <f>H12+H7</f>
         <v>4.4570860534307921E-2</v>
       </c>
-      <c r="G13" s="6">
-        <f>E13/F13</f>
-        <v>0.86576488493239701</v>
+      <c r="I14" s="6">
+        <f>F14/H14</f>
+        <v>0.86713283659137752</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
+        <v>1.06866567790378</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.81141638074527167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>